--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_18_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_18_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2337086.684027528</v>
+        <v>-2337824.206426228</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1608023.069889033</v>
+        <v>1608023.069889035</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.5378344848627</v>
       </c>
       <c r="C11" t="n">
-        <v>244.8065201724103</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>41.01425927858853</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9394602487552</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>285.1152879740085</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.1492688429794</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5689976340754</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.73160841495378</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.67916269170995</v>
+        <v>71.67916269170991</v>
       </c>
       <c r="T11" t="n">
-        <v>59.21722791657559</v>
+        <v>98.47994477460604</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.2570343856665</v>
       </c>
       <c r="V11" t="n">
         <v>206.354646015987</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.6830236246371</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.5084962447035</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.19355010381251</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>48.84700842086868</v>
+        <v>48.84700842086863</v>
       </c>
       <c r="D12" t="n">
-        <v>23.93384806811325</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>33.85485820064152</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>21.32765657701694</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7412825862149</v>
+        <v>13.56270707968252</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.19073690091015</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.54635653185672</v>
+        <v>41.54635653185668</v>
       </c>
       <c r="T12" t="n">
-        <v>75.06759025391874</v>
+        <v>186.9818861903269</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4600536910092</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V12" t="n">
-        <v>204.2743523153678</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>127.8107712434677</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.49257591205371</v>
+        <v>81.49257591205367</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.90511598415149</v>
+        <v>57.90511598415145</v>
       </c>
       <c r="C13" t="n">
-        <v>45.15797742467002</v>
+        <v>45.15797742466998</v>
       </c>
       <c r="D13" t="n">
-        <v>26.82699100798705</v>
+        <v>26.826991007987</v>
       </c>
       <c r="E13" t="n">
-        <v>24.79604866666686</v>
+        <v>24.79604866666682</v>
       </c>
       <c r="F13" t="n">
-        <v>23.98044590327218</v>
+        <v>23.98044590327214</v>
       </c>
       <c r="G13" t="n">
-        <v>45.47465477851334</v>
+        <v>45.4746547785133</v>
       </c>
       <c r="H13" t="n">
-        <v>37.35405327628419</v>
+        <v>37.35405327628415</v>
       </c>
       <c r="I13" t="n">
-        <v>24.47202221935814</v>
+        <v>24.4720222193581</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58502799526204</v>
+        <v>40.58502799526201</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05974488593895</v>
+        <v>96.05974488593893</v>
       </c>
       <c r="T13" t="n">
         <v>105.1439944560723</v>
@@ -1585,7 +1585,7 @@
         <v>163.8608025948012</v>
       </c>
       <c r="V13" t="n">
-        <v>130.7577755604069</v>
+        <v>130.7577755604068</v>
       </c>
       <c r="W13" t="n">
         <v>163.9140013808832</v>
@@ -1594,7 +1594,7 @@
         <v>103.9617844257769</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.57009836123591</v>
+        <v>96.57009836123586</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5378344848627</v>
+        <v>187.2007573479958</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>224.2107922748838</v>
+        <v>234.426157248066</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>285.1152879740085</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>292.1492688429794</v>
@@ -1625,7 +1625,7 @@
         <v>210.5689976340753</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.73160841495374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.67916269170989</v>
+        <v>71.67916269170991</v>
       </c>
       <c r="T14" t="n">
-        <v>98.47994477460604</v>
+        <v>98.47994477460605</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.354646015987</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.3515414940222</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.5084962447035</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.19355010381246</v>
+        <v>43.19355010381247</v>
       </c>
       <c r="C15" t="n">
-        <v>48.84700842086862</v>
+        <v>48.84700842086863</v>
       </c>
       <c r="D15" t="n">
-        <v>104.0391575999156</v>
+        <v>23.93384806811321</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>33.85485820064147</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.32765657701694</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7412825862149</v>
+        <v>13.56270707968252</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>197.246165760451</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4600536910092</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V15" t="n">
-        <v>109.7301555331228</v>
+        <v>189.8354650649246</v>
       </c>
       <c r="W15" t="n">
-        <v>127.8107712434677</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.28305410194589</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.49257591205365</v>
+        <v>81.49257591205367</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.90511598415144</v>
+        <v>57.90511598415145</v>
       </c>
       <c r="C16" t="n">
-        <v>45.15797742466997</v>
+        <v>45.15797742466998</v>
       </c>
       <c r="D16" t="n">
-        <v>26.82699100798699</v>
+        <v>26.826991007987</v>
       </c>
       <c r="E16" t="n">
-        <v>24.79604866666681</v>
+        <v>24.79604866666682</v>
       </c>
       <c r="F16" t="n">
-        <v>23.98044590327213</v>
+        <v>23.98044590327214</v>
       </c>
       <c r="G16" t="n">
-        <v>45.47465477851328</v>
+        <v>45.4746547785133</v>
       </c>
       <c r="H16" t="n">
-        <v>37.35405327628413</v>
+        <v>37.35405327628415</v>
       </c>
       <c r="I16" t="n">
-        <v>24.47202221935808</v>
+        <v>24.4720222193581</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58502799526198</v>
+        <v>40.585027995262</v>
       </c>
       <c r="S16" t="n">
-        <v>96.0597448859389</v>
+        <v>96.05974488593893</v>
       </c>
       <c r="T16" t="n">
         <v>105.1439944560723</v>
@@ -1831,7 +1831,7 @@
         <v>103.9617844257769</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.57009836123585</v>
+        <v>96.57009836123586</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>160.1543066784409</v>
       </c>
       <c r="C17" t="n">
-        <v>143.4229923659885</v>
+        <v>143.4229923659884</v>
       </c>
       <c r="D17" t="n">
-        <v>133.0426294416443</v>
+        <v>133.0426294416442</v>
       </c>
       <c r="E17" t="n">
-        <v>159.5559324423334</v>
+        <v>159.5559324423333</v>
       </c>
       <c r="F17" t="n">
         <v>183.7317601675867</v>
       </c>
       <c r="G17" t="n">
-        <v>190.7657410365577</v>
+        <v>190.7657410365576</v>
       </c>
       <c r="H17" t="n">
-        <v>109.1854698276536</v>
+        <v>109.1854698276535</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.8735065792448</v>
+        <v>27.87350657924472</v>
       </c>
       <c r="V17" t="n">
         <v>104.9711182095652</v>
       </c>
       <c r="W17" t="n">
-        <v>126.9680136876005</v>
+        <v>126.9680136876004</v>
       </c>
       <c r="X17" t="n">
-        <v>147.2994958182153</v>
+        <v>147.2994958182152</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.1249684382817</v>
+        <v>163.1249684382816</v>
       </c>
     </row>
     <row r="18">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>224.6386291975415</v>
       </c>
       <c r="V18" t="n">
-        <v>8.34662772670103</v>
+        <v>46.16212388920523</v>
       </c>
       <c r="W18" t="n">
-        <v>108.231045271825</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>146.6505977258905</v>
       </c>
       <c r="J19" t="n">
-        <v>72.12828872186662</v>
+        <v>50.93988833870146</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.4621973427249</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.760466649650548</v>
+        <v>3.760466649650462</v>
       </c>
       <c r="U19" t="n">
-        <v>62.47727478837944</v>
+        <v>62.47727478837935</v>
       </c>
       <c r="V19" t="n">
-        <v>29.37424775398506</v>
+        <v>29.37424775398497</v>
       </c>
       <c r="W19" t="n">
-        <v>62.53047357446144</v>
+        <v>62.53047357446135</v>
       </c>
       <c r="X19" t="n">
-        <v>2.578256619355159</v>
+        <v>2.578256619355074</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>160.1543066784409</v>
       </c>
       <c r="C20" t="n">
-        <v>143.4229923659885</v>
+        <v>143.4229923659884</v>
       </c>
       <c r="D20" t="n">
-        <v>133.0426294416443</v>
+        <v>133.0426294416442</v>
       </c>
       <c r="E20" t="n">
-        <v>159.5559324423334</v>
+        <v>159.5559324423333</v>
       </c>
       <c r="F20" t="n">
         <v>183.7317601675867</v>
       </c>
       <c r="G20" t="n">
-        <v>190.7657410365577</v>
+        <v>190.7657410365576</v>
       </c>
       <c r="H20" t="n">
-        <v>109.1854698276536</v>
+        <v>109.1854698276535</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.8735065792448</v>
+        <v>27.87350657924472</v>
       </c>
       <c r="V20" t="n">
         <v>104.9711182095652</v>
       </c>
       <c r="W20" t="n">
-        <v>126.9680136876005</v>
+        <v>126.9680136876004</v>
       </c>
       <c r="X20" t="n">
-        <v>147.2994958182153</v>
+        <v>147.2994958182152</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.1249684382817</v>
+        <v>163.1249684382816</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I21" t="n">
         <v>76.79682501022856</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.19073690091015</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U21" t="n">
         <v>224.6386291975415</v>
       </c>
       <c r="V21" t="n">
-        <v>8.34662772670103</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>141.6608829498159</v>
+        <v>247.5996806949088</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6532302850457</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.760466649650548</v>
+        <v>3.760466649650462</v>
       </c>
       <c r="U22" t="n">
-        <v>62.47727478837944</v>
+        <v>62.47727478837935</v>
       </c>
       <c r="V22" t="n">
-        <v>59.31150353353096</v>
+        <v>226.9647338185769</v>
       </c>
       <c r="W22" t="n">
-        <v>62.53047357446144</v>
+        <v>62.53047357446135</v>
       </c>
       <c r="X22" t="n">
-        <v>2.578256619355159</v>
+        <v>2.578256619355074</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>160.1543066784409</v>
       </c>
       <c r="C23" t="n">
-        <v>143.4229923659885</v>
+        <v>143.4229923659884</v>
       </c>
       <c r="D23" t="n">
-        <v>133.0426294416443</v>
+        <v>133.0426294416442</v>
       </c>
       <c r="E23" t="n">
-        <v>159.5559324423334</v>
+        <v>159.5559324423333</v>
       </c>
       <c r="F23" t="n">
         <v>183.7317601675867</v>
       </c>
       <c r="G23" t="n">
-        <v>190.7657410365577</v>
+        <v>190.7657410365576</v>
       </c>
       <c r="H23" t="n">
-        <v>109.1854698276536</v>
+        <v>109.1854698276535</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>27.8735065792448</v>
+        <v>27.87350657924472</v>
       </c>
       <c r="V23" t="n">
         <v>104.9711182095652</v>
       </c>
       <c r="W23" t="n">
-        <v>126.9680136876005</v>
+        <v>126.9680136876004</v>
       </c>
       <c r="X23" t="n">
-        <v>147.2994958182153</v>
+        <v>147.2994958182152</v>
       </c>
       <c r="Y23" t="n">
-        <v>163.1249684382817</v>
+        <v>163.1249684382816</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7412825862149</v>
+        <v>21.04227341635323</v>
       </c>
       <c r="H24" t="n">
-        <v>80.3254765711531</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.19073690091015</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U24" t="n">
         <v>224.6386291975415</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>17.50679457390807</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.760466649650548</v>
+        <v>3.760466649650462</v>
       </c>
       <c r="U25" t="n">
-        <v>62.47727478837944</v>
+        <v>62.47727478837935</v>
       </c>
       <c r="V25" t="n">
-        <v>29.37424775398506</v>
+        <v>29.37424775398497</v>
       </c>
       <c r="W25" t="n">
-        <v>62.53047357446144</v>
+        <v>62.53047357446135</v>
       </c>
       <c r="X25" t="n">
-        <v>20.08505119326286</v>
+        <v>2.578256619355074</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>272.2609286640754</v>
       </c>
       <c r="H26" t="n">
-        <v>190.6806574551713</v>
+        <v>190.6806574551714</v>
       </c>
       <c r="I26" t="n">
         <v>42.84326823604977</v>
@@ -2606,7 +2606,7 @@
         <v>51.79082251280593</v>
       </c>
       <c r="T26" t="n">
-        <v>78.59160459570207</v>
+        <v>78.59160459570208</v>
       </c>
       <c r="U26" t="n">
         <v>109.3686942067626</v>
@@ -2634,7 +2634,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>28.95866824196466</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2643,13 +2643,13 @@
         <v>13.9665180217375</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>1.439316398112965</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>75.77654850551031</v>
       </c>
       <c r="I27" t="n">
         <v>76.79682501022856</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S27" t="n">
         <v>163.724932038389</v>
       </c>
       <c r="T27" t="n">
-        <v>66.07961979599872</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386291975415</v>
@@ -2731,7 +2731,7 @@
         <v>17.46571309738017</v>
       </c>
       <c r="I28" t="n">
-        <v>4.583682040454122</v>
+        <v>4.583682040454124</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>272.2609286640754</v>
       </c>
       <c r="H29" t="n">
-        <v>190.6806574551713</v>
+        <v>190.6806574551714</v>
       </c>
       <c r="I29" t="n">
         <v>42.84326823604977</v>
@@ -2843,7 +2843,7 @@
         <v>51.79082251280593</v>
       </c>
       <c r="T29" t="n">
-        <v>78.59160459570207</v>
+        <v>78.59160459570208</v>
       </c>
       <c r="U29" t="n">
         <v>109.3686942067626</v>
@@ -2883,13 +2883,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>10.50645783030211</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S30" t="n">
         <v>21.65801635295271</v>
       </c>
       <c r="T30" t="n">
-        <v>100.4068472253465</v>
+        <v>55.17925007501471</v>
       </c>
       <c r="U30" t="n">
-        <v>82.57171351210519</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2968,7 +2968,7 @@
         <v>17.46571309738017</v>
       </c>
       <c r="I31" t="n">
-        <v>4.583682040454122</v>
+        <v>4.583682040454124</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>28.95866824196466</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -3120,7 +3120,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>10.50645783030222</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S33" t="n">
         <v>21.65801635295271</v>
       </c>
       <c r="T33" t="n">
-        <v>142.8764448062274</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U33" t="n">
         <v>224.6386291975415</v>
@@ -3205,7 +3205,7 @@
         <v>17.46571309738017</v>
       </c>
       <c r="I34" t="n">
-        <v>4.583682040454122</v>
+        <v>4.583682040454124</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160.5374192725211</v>
+        <v>160.537419272521</v>
       </c>
       <c r="C35" t="n">
-        <v>143.8061049600687</v>
+        <v>143.8061049600686</v>
       </c>
       <c r="D35" t="n">
         <v>133.4257420357244</v>
@@ -3275,7 +3275,7 @@
         <v>159.9390450364135</v>
       </c>
       <c r="F35" t="n">
-        <v>184.1148727616669</v>
+        <v>184.1148727616668</v>
       </c>
       <c r="G35" t="n">
         <v>191.1488536306378</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.25661917332493</v>
+        <v>28.25661917332491</v>
       </c>
       <c r="V35" t="n">
         <v>105.3542308036454</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>77.19073690091015</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>127.1412434415364</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.459638478667556</v>
+        <v>1.459638478667527</v>
       </c>
       <c r="V36" t="n">
-        <v>155.7961001044786</v>
+        <v>8.729740320781133</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
         <v>203.671151418586</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.143579243730679</v>
+        <v>4.143579243730651</v>
       </c>
       <c r="U37" t="n">
-        <v>62.86038738245957</v>
+        <v>62.86038738245954</v>
       </c>
       <c r="V37" t="n">
-        <v>29.75736034806519</v>
+        <v>29.75736034806516</v>
       </c>
       <c r="W37" t="n">
-        <v>62.91358616854157</v>
+        <v>62.91358616854154</v>
       </c>
       <c r="X37" t="n">
-        <v>198.6362923076262</v>
+        <v>198.6362923076263</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160.5374192725211</v>
+        <v>160.537419272521</v>
       </c>
       <c r="C38" t="n">
-        <v>143.8061049600687</v>
+        <v>143.8061049600686</v>
       </c>
       <c r="D38" t="n">
         <v>133.4257420357244</v>
@@ -3512,7 +3512,7 @@
         <v>159.9390450364135</v>
       </c>
       <c r="F38" t="n">
-        <v>184.1148727616669</v>
+        <v>184.1148727616668</v>
       </c>
       <c r="G38" t="n">
         <v>191.1488536306378</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>28.25661917332493</v>
+        <v>28.25661917332491</v>
       </c>
       <c r="V38" t="n">
         <v>105.3542308036454</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -3594,7 +3594,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>69.33437833300701</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.459638478667556</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V39" t="n">
-        <v>213.0617206632279</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>26.81035603112605</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>49.51590168438639</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.143579243730679</v>
+        <v>4.143579243730651</v>
       </c>
       <c r="U40" t="n">
-        <v>62.86038738245957</v>
+        <v>62.86038738245954</v>
       </c>
       <c r="V40" t="n">
-        <v>29.75736034806519</v>
+        <v>29.75736034806516</v>
       </c>
       <c r="W40" t="n">
-        <v>62.91358616854157</v>
+        <v>62.91358616854154</v>
       </c>
       <c r="X40" t="n">
-        <v>2.96136921343529</v>
+        <v>198.6362923076263</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>163.0578897102566</v>
+        <v>163.0578897102567</v>
       </c>
       <c r="C41" t="n">
         <v>146.3265753978042</v>
@@ -3746,10 +3746,10 @@
         <v>135.94621247346</v>
       </c>
       <c r="E41" t="n">
-        <v>162.459515474149</v>
+        <v>162.4595154741491</v>
       </c>
       <c r="F41" t="n">
-        <v>186.6353431994024</v>
+        <v>186.6353431994025</v>
       </c>
       <c r="G41" t="n">
         <v>193.6693240683734</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.77708961106049</v>
+        <v>30.77708961106052</v>
       </c>
       <c r="V41" t="n">
-        <v>107.8747012413809</v>
+        <v>107.874701241381</v>
       </c>
       <c r="W41" t="n">
         <v>129.8715967194162</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.61486200875346</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>217.3199029635454</v>
+        <v>3.980108916403138</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3901,13 +3901,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>36.91354949570854</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.0725709055129</v>
       </c>
       <c r="T43" t="n">
-        <v>6.664049681466233</v>
+        <v>6.664049681466262</v>
       </c>
       <c r="U43" t="n">
-        <v>65.38085782019513</v>
+        <v>65.38085782019516</v>
       </c>
       <c r="V43" t="n">
-        <v>32.27783078580075</v>
+        <v>32.27783078580077</v>
       </c>
       <c r="W43" t="n">
-        <v>65.43405660627712</v>
+        <v>65.43405660627715</v>
       </c>
       <c r="X43" t="n">
-        <v>5.481839651170844</v>
+        <v>5.481839651170873</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>163.0578897102567</v>
       </c>
       <c r="C44" t="n">
-        <v>146.3265753978043</v>
+        <v>146.3265753978042</v>
       </c>
       <c r="D44" t="n">
         <v>135.94621247346</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.77708961106054</v>
+        <v>30.77708961106052</v>
       </c>
       <c r="V44" t="n">
         <v>107.874701241381</v>
@@ -4043,7 +4043,7 @@
         <v>150.203078850031</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.0285514700975</v>
+        <v>166.0285514700974</v>
       </c>
     </row>
     <row r="45">
@@ -4062,10 +4062,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>87.75930994824874</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>8.878164438664443</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6386291975415</v>
+        <v>3.980108916403138</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4138,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>36.91354949570825</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>162.7636035017944</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.66404968146629</v>
+        <v>6.664049681466262</v>
       </c>
       <c r="U46" t="n">
-        <v>65.38085782019519</v>
+        <v>65.38085782019516</v>
       </c>
       <c r="V46" t="n">
-        <v>32.2778307858008</v>
+        <v>52.58679818951931</v>
       </c>
       <c r="W46" t="n">
-        <v>65.43405660627718</v>
+        <v>65.43405660627715</v>
       </c>
       <c r="X46" t="n">
-        <v>5.481839651170901</v>
+        <v>5.481839651170873</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1108.926567356402</v>
+        <v>658.5396397315266</v>
       </c>
       <c r="C11" t="n">
-        <v>861.6472540509372</v>
+        <v>658.5396397315266</v>
       </c>
       <c r="D11" t="n">
-        <v>861.6472540509372</v>
+        <v>617.1110950056795</v>
       </c>
       <c r="E11" t="n">
-        <v>598.0720416784573</v>
+        <v>617.1110950056795</v>
       </c>
       <c r="F11" t="n">
-        <v>310.0768013006708</v>
+        <v>329.1158546278932</v>
       </c>
       <c r="G11" t="n">
-        <v>310.0768013006708</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H11" t="n">
-        <v>97.38084409453398</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I11" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J11" t="n">
-        <v>77.63744688178878</v>
+        <v>77.63744688178876</v>
       </c>
       <c r="K11" t="n">
-        <v>260.6481166474515</v>
+        <v>265.291905666605</v>
       </c>
       <c r="L11" t="n">
-        <v>545.4191444354851</v>
+        <v>550.0629334546386</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4940762105008</v>
+        <v>882.1378652296542</v>
       </c>
       <c r="N11" t="n">
-        <v>1199.425152563019</v>
+        <v>1204.068941582172</v>
       </c>
       <c r="O11" t="n">
-        <v>1457.28718770936</v>
+        <v>1461.930976728513</v>
       </c>
       <c r="P11" t="n">
-        <v>1640.427675689728</v>
+        <v>1645.071464708881</v>
       </c>
       <c r="Q11" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R11" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S11" t="n">
-        <v>1628.375958828321</v>
+        <v>1628.37595882832</v>
       </c>
       <c r="T11" t="n">
-        <v>1568.560577094406</v>
+        <v>1528.901267136799</v>
       </c>
       <c r="U11" t="n">
-        <v>1568.560577094406</v>
+        <v>1398.338606141176</v>
       </c>
       <c r="V11" t="n">
-        <v>1360.121540714621</v>
+        <v>1189.899569761391</v>
       </c>
       <c r="W11" t="n">
-        <v>1360.121540714621</v>
+        <v>1189.899569761391</v>
       </c>
       <c r="X11" t="n">
-        <v>1108.926567356402</v>
+        <v>1189.899569761391</v>
       </c>
       <c r="Y11" t="n">
-        <v>1108.926567356402</v>
+        <v>922.7192705243172</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>610.1971412771112</v>
+        <v>423.7966228262853</v>
       </c>
       <c r="C12" t="n">
-        <v>560.8567287307792</v>
+        <v>374.4562102799533</v>
       </c>
       <c r="D12" t="n">
-        <v>536.6811246215739</v>
+        <v>226.8679036388972</v>
       </c>
       <c r="E12" t="n">
-        <v>502.4842981562794</v>
+        <v>69.25837464175191</v>
       </c>
       <c r="F12" t="n">
-        <v>357.5285081728962</v>
+        <v>47.71528719021966</v>
       </c>
       <c r="G12" t="n">
-        <v>220.4161015201539</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5881335847106</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J12" t="n">
-        <v>67.77851149822686</v>
+        <v>67.77851149822685</v>
       </c>
       <c r="K12" t="n">
-        <v>252.0903470956158</v>
+        <v>67.77851149822685</v>
       </c>
       <c r="L12" t="n">
-        <v>560.769962512762</v>
+        <v>163.8609485707087</v>
       </c>
       <c r="M12" t="n">
-        <v>973.7847083024319</v>
+        <v>576.8756943603786</v>
       </c>
       <c r="N12" t="n">
-        <v>1114.624637965624</v>
+        <v>997.8185348433153</v>
       </c>
       <c r="O12" t="n">
-        <v>1448.911231781309</v>
+        <v>1332.105128659</v>
       </c>
       <c r="P12" t="n">
-        <v>1700.779153466412</v>
+        <v>1583.973050344103</v>
       </c>
       <c r="Q12" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.808712152361</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S12" t="n">
-        <v>1580.842695453516</v>
+        <v>1658.813136767566</v>
       </c>
       <c r="T12" t="n">
-        <v>1505.016846712184</v>
+        <v>1469.942544656125</v>
       </c>
       <c r="U12" t="n">
-        <v>1401.521842983891</v>
+        <v>1243.034838395982</v>
       </c>
       <c r="V12" t="n">
-        <v>1195.184113372409</v>
+        <v>1008.783594921583</v>
       </c>
       <c r="W12" t="n">
-        <v>942.669621705742</v>
+        <v>879.6818057867669</v>
       </c>
       <c r="X12" t="n">
-        <v>736.1427231113195</v>
+        <v>673.1549071923444</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.8269898668208</v>
+        <v>590.8391739478457</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.381434864027</v>
+        <v>264.3814348640271</v>
       </c>
       <c r="C13" t="n">
-        <v>218.7673162532492</v>
+        <v>218.7673162532494</v>
       </c>
       <c r="D13" t="n">
-        <v>191.6693455381108</v>
+        <v>191.6693455381109</v>
       </c>
       <c r="E13" t="n">
-        <v>166.6228317333968</v>
+        <v>166.622831733397</v>
       </c>
       <c r="F13" t="n">
-        <v>142.4001591038289</v>
+        <v>142.4001591038291</v>
       </c>
       <c r="G13" t="n">
-        <v>96.46616437805787</v>
+        <v>96.46616437805775</v>
       </c>
       <c r="H13" t="n">
-        <v>58.73479743231625</v>
+        <v>58.73479743231619</v>
       </c>
       <c r="I13" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J13" t="n">
-        <v>83.56536698614727</v>
+        <v>83.5653669861473</v>
       </c>
       <c r="K13" t="n">
-        <v>217.0814624720387</v>
+        <v>217.0814624720379</v>
       </c>
       <c r="L13" t="n">
-        <v>409.9134546823806</v>
+        <v>409.9134546823799</v>
       </c>
       <c r="M13" t="n">
-        <v>617.2454674020871</v>
+        <v>617.2454674020864</v>
       </c>
       <c r="N13" t="n">
-        <v>827.6649322725654</v>
+        <v>827.6649322725648</v>
       </c>
       <c r="O13" t="n">
-        <v>1015.918385894577</v>
+        <v>1015.918385894576</v>
       </c>
       <c r="P13" t="n">
         <v>1171.236616050933</v>
       </c>
       <c r="Q13" t="n">
-        <v>1232.824208242339</v>
+        <v>1232.824208242338</v>
       </c>
       <c r="R13" t="n">
         <v>1191.829230469347</v>
       </c>
       <c r="S13" t="n">
-        <v>1094.799185130015</v>
+        <v>1094.799185130014</v>
       </c>
       <c r="T13" t="n">
-        <v>988.5931301238813</v>
+        <v>988.5931301238807</v>
       </c>
       <c r="U13" t="n">
-        <v>823.0771679069104</v>
+        <v>823.0771679069098</v>
       </c>
       <c r="V13" t="n">
-        <v>690.9986067347822</v>
+        <v>690.9986067347818</v>
       </c>
       <c r="W13" t="n">
-        <v>525.4289083702537</v>
+        <v>525.4289083702535</v>
       </c>
       <c r="X13" t="n">
-        <v>420.4170049098729</v>
+        <v>420.417004909873</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.8714510096346</v>
+        <v>322.8714510096347</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1056.282599964225</v>
+        <v>841.9711710896056</v>
       </c>
       <c r="C14" t="n">
-        <v>1056.282599964225</v>
+        <v>841.9711710896056</v>
       </c>
       <c r="D14" t="n">
-        <v>829.8070522118164</v>
+        <v>605.1770728592359</v>
       </c>
       <c r="E14" t="n">
-        <v>829.8070522118164</v>
+        <v>605.1770728592359</v>
       </c>
       <c r="F14" t="n">
-        <v>541.8118118340301</v>
+        <v>605.1770728592359</v>
       </c>
       <c r="G14" t="n">
-        <v>246.7115402754649</v>
+        <v>310.0768013006708</v>
       </c>
       <c r="H14" t="n">
-        <v>34.01558306932823</v>
+        <v>97.38084409453404</v>
       </c>
       <c r="I14" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J14" t="n">
-        <v>77.63744688178878</v>
+        <v>77.63744688178876</v>
       </c>
       <c r="K14" t="n">
-        <v>260.6481166474515</v>
+        <v>265.291905666605</v>
       </c>
       <c r="L14" t="n">
-        <v>545.4191444354851</v>
+        <v>550.0629334546386</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4940762105008</v>
+        <v>882.1378652296542</v>
       </c>
       <c r="N14" t="n">
-        <v>1199.425152563019</v>
+        <v>1204.068941582172</v>
       </c>
       <c r="O14" t="n">
-        <v>1457.28718770936</v>
+        <v>1461.930976728513</v>
       </c>
       <c r="P14" t="n">
-        <v>1640.427675689728</v>
+        <v>1645.071464708881</v>
       </c>
       <c r="Q14" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R14" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S14" t="n">
-        <v>1628.375958828321</v>
+        <v>1628.37595882832</v>
       </c>
       <c r="T14" t="n">
-        <v>1528.9012671368</v>
+        <v>1528.901267136799</v>
       </c>
       <c r="U14" t="n">
-        <v>1528.9012671368</v>
+        <v>1528.901267136799</v>
       </c>
       <c r="V14" t="n">
-        <v>1320.462230757015</v>
+        <v>1528.901267136799</v>
       </c>
       <c r="W14" t="n">
-        <v>1320.462230757015</v>
+        <v>1298.243144415565</v>
       </c>
       <c r="X14" t="n">
-        <v>1320.462230757015</v>
+        <v>1298.243144415565</v>
       </c>
       <c r="Y14" t="n">
-        <v>1320.462230757015</v>
+        <v>1031.06284517849</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>705.6963299460463</v>
+        <v>254.543768277966</v>
       </c>
       <c r="C15" t="n">
-        <v>656.3559173997144</v>
+        <v>205.203355731634</v>
       </c>
       <c r="D15" t="n">
-        <v>551.2658592179814</v>
+        <v>181.0277516224288</v>
       </c>
       <c r="E15" t="n">
-        <v>393.6563302208361</v>
+        <v>146.8309251571343</v>
       </c>
       <c r="F15" t="n">
-        <v>248.7005402374529</v>
+        <v>125.2878377056021</v>
       </c>
       <c r="G15" t="n">
         <v>111.5881335847106</v>
@@ -5352,34 +5352,34 @@
         <v>111.5881335847106</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J15" t="n">
-        <v>67.77851149822686</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K15" t="n">
-        <v>252.0903470956158</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="L15" t="n">
-        <v>560.769962512762</v>
+        <v>342.6951984864744</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7847083024319</v>
+        <v>693.6817974826869</v>
       </c>
       <c r="N15" t="n">
         <v>1114.624637965624</v>
       </c>
       <c r="O15" t="n">
-        <v>1448.911231781309</v>
+        <v>1448.911231781308</v>
       </c>
       <c r="P15" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="Q15" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.808712152361</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="S15" t="n">
         <v>1457.429992921665</v>
@@ -5388,19 +5388,19 @@
         <v>1258.191441648482</v>
       </c>
       <c r="U15" t="n">
-        <v>1154.69643792019</v>
+        <v>1031.283735388339</v>
       </c>
       <c r="V15" t="n">
-        <v>1043.857896977642</v>
+        <v>839.5307403732634</v>
       </c>
       <c r="W15" t="n">
-        <v>914.7561078428262</v>
+        <v>587.0162487065967</v>
       </c>
       <c r="X15" t="n">
-        <v>831.6419117802545</v>
+        <v>380.4893501121742</v>
       </c>
       <c r="Y15" t="n">
-        <v>749.3261785357558</v>
+        <v>298.1736168676755</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.3814348640264</v>
+        <v>264.3814348640267</v>
       </c>
       <c r="C16" t="n">
-        <v>218.7673162532487</v>
+        <v>218.7673162532489</v>
       </c>
       <c r="D16" t="n">
-        <v>191.6693455381103</v>
+        <v>191.6693455381105</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6228317333963</v>
+        <v>166.6228317333966</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4001591038285</v>
+        <v>142.4001591038288</v>
       </c>
       <c r="G16" t="n">
-        <v>96.4661643780577</v>
+        <v>96.46616437805775</v>
       </c>
       <c r="H16" t="n">
-        <v>58.73479743231614</v>
+        <v>58.7347974323162</v>
       </c>
       <c r="I16" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J16" t="n">
-        <v>83.56536698614732</v>
+        <v>83.5653669861473</v>
       </c>
       <c r="K16" t="n">
-        <v>217.0814624720372</v>
+        <v>217.0814624720374</v>
       </c>
       <c r="L16" t="n">
-        <v>409.9134546823792</v>
+        <v>409.9134546823793</v>
       </c>
       <c r="M16" t="n">
-        <v>617.2454674020858</v>
+        <v>617.2454674020859</v>
       </c>
       <c r="N16" t="n">
-        <v>827.6649322725641</v>
+        <v>827.6649322725642</v>
       </c>
       <c r="O16" t="n">
         <v>1015.918385894576</v>
@@ -5464,22 +5464,22 @@
         <v>1094.799185130014</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5931301238803</v>
+        <v>988.5931301238805</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0771679069094</v>
+        <v>823.0771679069096</v>
       </c>
       <c r="V16" t="n">
-        <v>690.9986067347813</v>
+        <v>690.9986067347816</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4289083702529</v>
+        <v>525.4289083702531</v>
       </c>
       <c r="X16" t="n">
-        <v>420.4170049098722</v>
+        <v>420.4170049098724</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.8714510096339</v>
+        <v>322.8714510096342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,70 +5489,70 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>963.0100530509083</v>
+        <v>963.0100530509079</v>
       </c>
       <c r="C17" t="n">
-        <v>818.138343590314</v>
+        <v>818.1383435903135</v>
       </c>
       <c r="D17" t="n">
-        <v>683.7518492048144</v>
+        <v>683.7518492048143</v>
       </c>
       <c r="E17" t="n">
-        <v>522.584240677205</v>
+        <v>522.5842406772049</v>
       </c>
       <c r="F17" t="n">
-        <v>336.9966041442891</v>
+        <v>336.996604144289</v>
       </c>
       <c r="G17" t="n">
-        <v>144.3039364305945</v>
+        <v>144.3039364305944</v>
       </c>
       <c r="H17" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I17" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J17" t="n">
-        <v>72.9936578626353</v>
+        <v>77.63744688178876</v>
       </c>
       <c r="K17" t="n">
-        <v>260.6481166474515</v>
+        <v>265.291905666605</v>
       </c>
       <c r="L17" t="n">
-        <v>545.4191444354851</v>
+        <v>550.0629334546386</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4940762105008</v>
+        <v>882.1378652296542</v>
       </c>
       <c r="N17" t="n">
-        <v>1199.425152563019</v>
+        <v>1204.068941582172</v>
       </c>
       <c r="O17" t="n">
-        <v>1457.28718770936</v>
+        <v>1461.930976728513</v>
       </c>
       <c r="P17" t="n">
-        <v>1640.427675689728</v>
+        <v>1645.071464708881</v>
       </c>
       <c r="Q17" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R17" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S17" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="T17" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="U17" t="n">
         <v>1672.624096315659</v>
       </c>
       <c r="V17" t="n">
-        <v>1566.592663780745</v>
+        <v>1566.592663780744</v>
       </c>
       <c r="W17" t="n">
-        <v>1438.342144904381</v>
+        <v>1438.34214490438</v>
       </c>
       <c r="X17" t="n">
         <v>1289.554775391032</v>
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540.7575232393929</v>
+        <v>525.6139371583554</v>
       </c>
       <c r="C18" t="n">
-        <v>368.00440816121</v>
+        <v>525.6139371583554</v>
       </c>
       <c r="D18" t="n">
-        <v>220.4161015201539</v>
+        <v>378.0256305172992</v>
       </c>
       <c r="E18" t="n">
         <v>220.4161015201539</v>
@@ -5589,10 +5589,10 @@
         <v>111.5881335847106</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J18" t="n">
-        <v>67.77851149822686</v>
+        <v>67.77851149822685</v>
       </c>
       <c r="K18" t="n">
         <v>252.0903470956158</v>
@@ -5604,7 +5604,7 @@
         <v>973.7847083024319</v>
       </c>
       <c r="N18" t="n">
-        <v>997.8185348433158</v>
+        <v>997.8185348433153</v>
       </c>
       <c r="O18" t="n">
         <v>1332.105128659</v>
@@ -5613,10 +5613,10 @@
         <v>1583.973050344103</v>
       </c>
       <c r="Q18" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.808712152361</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="S18" t="n">
         <v>1457.429992921665</v>
@@ -5628,16 +5628,16 @@
         <v>1031.283735388339</v>
       </c>
       <c r="V18" t="n">
-        <v>1022.852798290661</v>
+        <v>984.6553274194446</v>
       </c>
       <c r="W18" t="n">
-        <v>913.5285101373029</v>
+        <v>732.1408357527779</v>
       </c>
       <c r="X18" t="n">
-        <v>913.5285101373029</v>
+        <v>525.6139371583554</v>
       </c>
       <c r="Y18" t="n">
-        <v>707.8000743609533</v>
+        <v>525.6139371583554</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.872440364143</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="C19" t="n">
-        <v>106.872440364143</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="D19" t="n">
-        <v>106.872440364143</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="E19" t="n">
-        <v>106.872440364143</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="F19" t="n">
-        <v>106.872440364143</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="G19" t="n">
-        <v>106.872440364143</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="H19" t="n">
-        <v>106.872440364143</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="I19" t="n">
-        <v>106.872440364143</v>
+        <v>85.47001573468324</v>
       </c>
       <c r="J19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K19" t="n">
-        <v>46.57488880375149</v>
+        <v>46.57488880375148</v>
       </c>
       <c r="L19" t="n">
         <v>118.4500912626264</v>
       </c>
       <c r="M19" t="n">
-        <v>204.825314230866</v>
+        <v>204.8253142308659</v>
       </c>
       <c r="N19" t="n">
         <v>294.2879893498773</v>
       </c>
       <c r="O19" t="n">
-        <v>361.5846532204217</v>
+        <v>361.5846532204216</v>
       </c>
       <c r="P19" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="R19" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="S19" t="n">
-        <v>269.2166013599326</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="T19" t="n">
-        <v>265.4181501986694</v>
+        <v>392.1476424640481</v>
       </c>
       <c r="U19" t="n">
-        <v>202.3097918265689</v>
+        <v>329.0392840919478</v>
       </c>
       <c r="V19" t="n">
-        <v>172.6388344993113</v>
+        <v>299.3683267646902</v>
       </c>
       <c r="W19" t="n">
-        <v>109.4767399796533</v>
+        <v>236.2062322450323</v>
       </c>
       <c r="X19" t="n">
-        <v>106.872440364143</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.872440364143</v>
+        <v>233.6019326295221</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>963.0100530509083</v>
+        <v>963.0100530509071</v>
       </c>
       <c r="C20" t="n">
-        <v>818.1383435903139</v>
+        <v>818.1383435903127</v>
       </c>
       <c r="D20" t="n">
-        <v>683.7518492048146</v>
+        <v>683.7518492048135</v>
       </c>
       <c r="E20" t="n">
-        <v>522.5842406772051</v>
+        <v>522.5842406772042</v>
       </c>
       <c r="F20" t="n">
-        <v>336.9966041442892</v>
+        <v>336.9966041442883</v>
       </c>
       <c r="G20" t="n">
-        <v>144.3039364305945</v>
+        <v>144.3039364305944</v>
       </c>
       <c r="H20" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I20" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J20" t="n">
-        <v>77.63744688178878</v>
+        <v>77.63744688178876</v>
       </c>
       <c r="K20" t="n">
         <v>265.291905666605</v>
@@ -5759,10 +5759,10 @@
         <v>550.0629334546386</v>
       </c>
       <c r="M20" t="n">
-        <v>882.1378652296542</v>
+        <v>877.4940762105003</v>
       </c>
       <c r="N20" t="n">
-        <v>1199.425152563019</v>
+        <v>1199.425152563018</v>
       </c>
       <c r="O20" t="n">
         <v>1457.28718770936</v>
@@ -5771,31 +5771,31 @@
         <v>1640.427675689728</v>
       </c>
       <c r="Q20" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R20" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S20" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="T20" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="U20" t="n">
-        <v>1672.624096315659</v>
+        <v>1672.624096315658</v>
       </c>
       <c r="V20" t="n">
-        <v>1566.592663780745</v>
+        <v>1566.592663780744</v>
       </c>
       <c r="W20" t="n">
-        <v>1438.342144904381</v>
+        <v>1438.342144904379</v>
       </c>
       <c r="X20" t="n">
-        <v>1289.554775391032</v>
+        <v>1289.554775391031</v>
       </c>
       <c r="Y20" t="n">
-        <v>1124.782079998828</v>
+        <v>1124.782079998827</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>871.6072809372204</v>
+        <v>378.0256305172992</v>
       </c>
       <c r="C21" t="n">
-        <v>698.8541658590375</v>
+        <v>378.0256305172992</v>
       </c>
       <c r="D21" t="n">
-        <v>551.2658592179814</v>
+        <v>378.0256305172992</v>
       </c>
       <c r="E21" t="n">
-        <v>393.6563302208361</v>
+        <v>220.4161015201539</v>
       </c>
       <c r="F21" t="n">
-        <v>248.7005402374529</v>
+        <v>220.4161015201539</v>
       </c>
       <c r="G21" t="n">
-        <v>111.5881335847106</v>
+        <v>220.4161015201539</v>
       </c>
       <c r="H21" t="n">
         <v>111.5881335847106</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J21" t="n">
-        <v>67.77851149822686</v>
+        <v>67.77851149822685</v>
       </c>
       <c r="K21" t="n">
         <v>252.0903470956158</v>
@@ -5841,7 +5841,7 @@
         <v>973.7847083024319</v>
       </c>
       <c r="N21" t="n">
-        <v>997.8185348433158</v>
+        <v>997.8185348433153</v>
       </c>
       <c r="O21" t="n">
         <v>1332.105128659</v>
@@ -5850,31 +5850,31 @@
         <v>1583.973050344103</v>
       </c>
       <c r="Q21" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.808712152361</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.808712152361</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.808712152361</v>
+        <v>1501.540602193228</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.901005892218</v>
+        <v>1274.632895933085</v>
       </c>
       <c r="V21" t="n">
-        <v>1387.47006879454</v>
+        <v>1040.381652458686</v>
       </c>
       <c r="W21" t="n">
-        <v>1244.37826783513</v>
+        <v>790.2809648880713</v>
       </c>
       <c r="X21" t="n">
-        <v>1244.37826783513</v>
+        <v>583.7540662936487</v>
       </c>
       <c r="Y21" t="n">
-        <v>1038.649832058781</v>
+        <v>378.0256305172992</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>203.3622803269501</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="C22" t="n">
-        <v>203.3622803269501</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="D22" t="n">
-        <v>203.3622803269501</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="E22" t="n">
-        <v>203.3622803269501</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="F22" t="n">
-        <v>203.3622803269501</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="G22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K22" t="n">
-        <v>46.57488880375149</v>
+        <v>46.57488880375148</v>
       </c>
       <c r="L22" t="n">
         <v>118.4500912626264</v>
       </c>
       <c r="M22" t="n">
-        <v>204.825314230866</v>
+        <v>204.8253142308659</v>
       </c>
       <c r="N22" t="n">
         <v>294.2879893498773</v>
       </c>
       <c r="O22" t="n">
-        <v>361.5846532204217</v>
+        <v>361.5846532204216</v>
       </c>
       <c r="P22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="R22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="S22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="T22" t="n">
         <v>392.1476424640481</v>
       </c>
       <c r="U22" t="n">
-        <v>329.0392840919476</v>
+        <v>329.0392840919478</v>
       </c>
       <c r="V22" t="n">
-        <v>269.1286744621184</v>
+        <v>99.78197720449634</v>
       </c>
       <c r="W22" t="n">
-        <v>205.9665799424604</v>
+        <v>36.6198826848384</v>
       </c>
       <c r="X22" t="n">
-        <v>203.3622803269501</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.3622803269501</v>
+        <v>34.01558306932822</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>963.0100530509084</v>
+        <v>963.010053050907</v>
       </c>
       <c r="C23" t="n">
-        <v>818.1383435903139</v>
+        <v>818.1383435903126</v>
       </c>
       <c r="D23" t="n">
-        <v>683.7518492048146</v>
+        <v>683.7518492048134</v>
       </c>
       <c r="E23" t="n">
-        <v>522.5842406772051</v>
+        <v>522.584240677204</v>
       </c>
       <c r="F23" t="n">
-        <v>336.9966041442892</v>
+        <v>336.9966041442881</v>
       </c>
       <c r="G23" t="n">
-        <v>144.3039364305945</v>
+        <v>144.3039364305944</v>
       </c>
       <c r="H23" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I23" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J23" t="n">
-        <v>72.99365786263553</v>
+        <v>77.63744688178875</v>
       </c>
       <c r="K23" t="n">
-        <v>260.6481166474517</v>
+        <v>265.291905666605</v>
       </c>
       <c r="L23" t="n">
-        <v>545.4191444354854</v>
+        <v>550.0629334546386</v>
       </c>
       <c r="M23" t="n">
-        <v>877.494076210501</v>
+        <v>882.1378652296542</v>
       </c>
       <c r="N23" t="n">
-        <v>1199.425152563019</v>
+        <v>1199.425152563018</v>
       </c>
       <c r="O23" t="n">
-        <v>1457.28718770936</v>
+        <v>1457.287187709359</v>
       </c>
       <c r="P23" t="n">
-        <v>1640.427675689728</v>
+        <v>1640.427675689727</v>
       </c>
       <c r="Q23" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R23" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S23" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="T23" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="U23" t="n">
-        <v>1672.624096315659</v>
+        <v>1672.624096315658</v>
       </c>
       <c r="V23" t="n">
-        <v>1566.592663780745</v>
+        <v>1566.592663780743</v>
       </c>
       <c r="W23" t="n">
-        <v>1438.342144904381</v>
+        <v>1438.342144904379</v>
       </c>
       <c r="X23" t="n">
-        <v>1289.554775391032</v>
+        <v>1289.554775391031</v>
       </c>
       <c r="Y23" t="n">
-        <v>1124.782079998829</v>
+        <v>1124.782079998827</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>329.8373852588197</v>
+        <v>375.6118264212472</v>
       </c>
       <c r="C24" t="n">
-        <v>329.8373852588197</v>
+        <v>202.8587113430644</v>
       </c>
       <c r="D24" t="n">
-        <v>329.8373852588197</v>
+        <v>55.27040470200825</v>
       </c>
       <c r="E24" t="n">
-        <v>329.8373852588197</v>
+        <v>55.27040470200825</v>
       </c>
       <c r="F24" t="n">
-        <v>329.8373852588197</v>
+        <v>55.27040470200825</v>
       </c>
       <c r="G24" t="n">
-        <v>192.7249786060774</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5881335847106</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J24" t="n">
-        <v>34.01558306932824</v>
+        <v>67.77851149822683</v>
       </c>
       <c r="K24" t="n">
-        <v>34.01558306932824</v>
+        <v>252.0903470956158</v>
       </c>
       <c r="L24" t="n">
-        <v>342.6951984864745</v>
+        <v>560.769962512762</v>
       </c>
       <c r="M24" t="n">
-        <v>755.7099442761444</v>
+        <v>693.6817974826868</v>
       </c>
       <c r="N24" t="n">
-        <v>1114.624637965624</v>
+        <v>1114.624637965623</v>
       </c>
       <c r="O24" t="n">
-        <v>1448.911231781309</v>
+        <v>1448.911231781308</v>
       </c>
       <c r="P24" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="Q24" t="n">
-        <v>1700.779153466412</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.808712152361</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.808712152361</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.808712152361</v>
+        <v>1501.540602193228</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.901005892218</v>
+        <v>1274.632895933085</v>
       </c>
       <c r="V24" t="n">
-        <v>1161.649762417819</v>
+        <v>1040.381652458686</v>
       </c>
       <c r="W24" t="n">
-        <v>909.1352707511522</v>
+        <v>787.8671607920193</v>
       </c>
       <c r="X24" t="n">
-        <v>702.6083721567297</v>
+        <v>581.3402621975968</v>
       </c>
       <c r="Y24" t="n">
-        <v>496.8799363803802</v>
+        <v>375.6118264212472</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.01558306932824</v>
+        <v>51.69921395206364</v>
       </c>
       <c r="C25" t="n">
-        <v>34.01558306932824</v>
+        <v>51.69921395206364</v>
       </c>
       <c r="D25" t="n">
-        <v>34.01558306932824</v>
+        <v>51.69921395206364</v>
       </c>
       <c r="E25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="F25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="G25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J25" t="n">
-        <v>34.01558306932824</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K25" t="n">
-        <v>46.5748888037515</v>
+        <v>46.57488880375147</v>
       </c>
       <c r="L25" t="n">
         <v>118.4500912626264</v>
       </c>
       <c r="M25" t="n">
-        <v>204.825314230866</v>
+        <v>204.8253142308659</v>
       </c>
       <c r="N25" t="n">
-        <v>294.2879893498773</v>
+        <v>294.2879893498772</v>
       </c>
       <c r="O25" t="n">
-        <v>361.5846532204217</v>
+        <v>361.5846532204216</v>
       </c>
       <c r="P25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="Q25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="R25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="S25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253112</v>
       </c>
       <c r="T25" t="n">
         <v>392.1476424640481</v>
       </c>
       <c r="U25" t="n">
-        <v>329.0392840919476</v>
+        <v>329.0392840919477</v>
       </c>
       <c r="V25" t="n">
-        <v>299.36832676469</v>
+        <v>299.3683267646902</v>
       </c>
       <c r="W25" t="n">
-        <v>236.206232245032</v>
+        <v>236.2062322450322</v>
       </c>
       <c r="X25" t="n">
-        <v>215.9183017467867</v>
+        <v>233.6019326295221</v>
       </c>
       <c r="Y25" t="n">
-        <v>215.9183017467867</v>
+        <v>233.6019326295221</v>
       </c>
     </row>
     <row r="26">
@@ -6209,28 +6209,28 @@
         <v>1080.031891782318</v>
       </c>
       <c r="E26" t="n">
-        <v>836.5459119137813</v>
+        <v>836.5459119137815</v>
       </c>
       <c r="F26" t="n">
-        <v>568.6399040399383</v>
+        <v>568.6399040399385</v>
       </c>
       <c r="G26" t="n">
-        <v>293.6288649853167</v>
+        <v>293.6288649853168</v>
       </c>
       <c r="H26" t="n">
-        <v>101.0221402831234</v>
+        <v>101.0221402831235</v>
       </c>
       <c r="I26" t="n">
         <v>57.74611176186114</v>
       </c>
       <c r="J26" t="n">
-        <v>242.0142221029037</v>
+        <v>242.0142221029041</v>
       </c>
       <c r="K26" t="n">
-        <v>570.3149274163018</v>
+        <v>570.3149274163022</v>
       </c>
       <c r="L26" t="n">
-        <v>995.7322017329174</v>
+        <v>995.7322017329177</v>
       </c>
       <c r="M26" t="n">
         <v>1468.453380036515</v>
@@ -6245,7 +6245,7 @@
         <v>2653.325719101488</v>
       </c>
       <c r="Q26" t="n">
-        <v>2854.323443406753</v>
+        <v>2854.323443406754</v>
       </c>
       <c r="R26" t="n">
         <v>2887.305588093057</v>
@@ -6257,13 +6257,13 @@
         <v>2755.606166771332</v>
       </c>
       <c r="U26" t="n">
-        <v>2645.132738279652</v>
+        <v>2645.132738279653</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.78293440381</v>
+        <v>2456.782934403811</v>
       </c>
       <c r="W26" t="n">
-        <v>2246.214044186519</v>
+        <v>2246.21404418652</v>
       </c>
       <c r="X26" t="n">
         <v>2015.108303332244</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>614.7234679412167</v>
+        <v>404.2615660570123</v>
       </c>
       <c r="C27" t="n">
-        <v>441.9703528630338</v>
+        <v>375.0103860146237</v>
       </c>
       <c r="D27" t="n">
-        <v>294.3820462219777</v>
+        <v>227.4220793735676</v>
       </c>
       <c r="E27" t="n">
-        <v>280.2744522606267</v>
+        <v>213.3144854122166</v>
       </c>
       <c r="F27" t="n">
-        <v>135.3186622772435</v>
+        <v>211.8606304646277</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3186622772435</v>
+        <v>211.8606304646277</v>
       </c>
       <c r="H27" t="n">
         <v>135.3186622772435</v>
@@ -6303,16 +6303,16 @@
         <v>57.74611176186114</v>
       </c>
       <c r="J27" t="n">
-        <v>91.50904019075978</v>
+        <v>91.50904019075976</v>
       </c>
       <c r="K27" t="n">
-        <v>275.8208757881488</v>
+        <v>275.8208757881487</v>
       </c>
       <c r="L27" t="n">
-        <v>584.500491205295</v>
+        <v>584.5004912052949</v>
       </c>
       <c r="M27" t="n">
-        <v>997.5152369949649</v>
+        <v>997.5152369949648</v>
       </c>
       <c r="N27" t="n">
         <v>1436.859986145387</v>
@@ -6321,34 +6321,34 @@
         <v>1771.146579961072</v>
       </c>
       <c r="P27" t="n">
-        <v>2023.014501646175</v>
+        <v>2023.014501646174</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.820604768483</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.820604768483</v>
+        <v>2061.850163454432</v>
       </c>
       <c r="S27" t="n">
-        <v>1974.441885537787</v>
+        <v>1896.471444223736</v>
       </c>
       <c r="T27" t="n">
-        <v>1907.694794834758</v>
+        <v>1697.232892950554</v>
       </c>
       <c r="U27" t="n">
-        <v>1680.787088574615</v>
+        <v>1470.325186690411</v>
       </c>
       <c r="V27" t="n">
-        <v>1446.535845100216</v>
+        <v>1236.073943216011</v>
       </c>
       <c r="W27" t="n">
-        <v>1194.021353433549</v>
+        <v>983.5594515493448</v>
       </c>
       <c r="X27" t="n">
-        <v>987.4944548391267</v>
+        <v>777.0325529549223</v>
       </c>
       <c r="Y27" t="n">
-        <v>781.7660190627771</v>
+        <v>571.3041171785727</v>
       </c>
     </row>
     <row r="28">
@@ -6385,22 +6385,22 @@
         <v>126.9853524557952</v>
       </c>
       <c r="K28" t="n">
-        <v>139.5446581902184</v>
+        <v>280.1909047188004</v>
       </c>
       <c r="L28" t="n">
-        <v>295.061472483407</v>
+        <v>492.7123537062573</v>
       </c>
       <c r="M28" t="n">
-        <v>381.4366954516465</v>
+        <v>719.7338232030787</v>
       </c>
       <c r="N28" t="n">
-        <v>470.8993705706579</v>
+        <v>809.1964983220901</v>
       </c>
       <c r="O28" t="n">
-        <v>678.8422809697843</v>
+        <v>900.7655764668872</v>
       </c>
       <c r="P28" t="n">
-        <v>853.8499679032558</v>
+        <v>935.1270168717767</v>
       </c>
       <c r="Q28" t="n">
         <v>935.1270168717767</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1523.926838310266</v>
+        <v>1523.926838310265</v>
       </c>
       <c r="C29" t="n">
         <v>1296.736757508744</v>
       </c>
       <c r="D29" t="n">
-        <v>1080.031891782318</v>
+        <v>1080.031891782317</v>
       </c>
       <c r="E29" t="n">
-        <v>836.5459119137811</v>
+        <v>836.5459119137809</v>
       </c>
       <c r="F29" t="n">
-        <v>568.6399040399381</v>
+        <v>568.6399040399378</v>
       </c>
       <c r="G29" t="n">
-        <v>293.6288649853163</v>
+        <v>293.6288649853168</v>
       </c>
       <c r="H29" t="n">
         <v>101.0221402831235</v>
       </c>
       <c r="I29" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J29" t="n">
         <v>242.0142221029036</v>
@@ -6467,7 +6467,7 @@
         <v>570.3149274163018</v>
       </c>
       <c r="L29" t="n">
-        <v>995.7322017329172</v>
+        <v>995.7322017329175</v>
       </c>
       <c r="M29" t="n">
         <v>1468.453380036515</v>
@@ -6476,22 +6476,22 @@
         <v>1931.030702917615</v>
       </c>
       <c r="O29" t="n">
-        <v>2329.538984592538</v>
+        <v>2329.538984592537</v>
       </c>
       <c r="P29" t="n">
-        <v>2653.325719101488</v>
+        <v>2653.325719101487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2854.323443406754</v>
+        <v>2854.323443406753</v>
       </c>
       <c r="R29" t="n">
-        <v>2887.305588093057</v>
+        <v>2887.305588093056</v>
       </c>
       <c r="S29" t="n">
         <v>2834.991625958909</v>
       </c>
       <c r="T29" t="n">
-        <v>2755.606166771332</v>
+        <v>2755.606166771331</v>
       </c>
       <c r="U29" t="n">
         <v>2645.132738279652</v>
@@ -6503,10 +6503,10 @@
         <v>2246.214044186519</v>
       </c>
       <c r="X29" t="n">
-        <v>2015.108303332244</v>
+        <v>2015.108303332243</v>
       </c>
       <c r="Y29" t="n">
-        <v>1768.017236599113</v>
+        <v>1768.017236599112</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.0533709124543</v>
+        <v>691.2654361286004</v>
       </c>
       <c r="C30" t="n">
-        <v>694.3002558342714</v>
+        <v>518.5123210504175</v>
       </c>
       <c r="D30" t="n">
-        <v>546.7119491932152</v>
+        <v>370.9240144093614</v>
       </c>
       <c r="E30" t="n">
-        <v>389.1024201960699</v>
+        <v>213.3144854122161</v>
       </c>
       <c r="F30" t="n">
-        <v>244.1466302126868</v>
+        <v>68.35869542883296</v>
       </c>
       <c r="G30" t="n">
-        <v>244.1466302126868</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3186622772435</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="I30" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J30" t="n">
-        <v>91.50904019075978</v>
+        <v>91.50904019075975</v>
       </c>
       <c r="K30" t="n">
-        <v>275.8208757881488</v>
+        <v>275.8208757881487</v>
       </c>
       <c r="L30" t="n">
-        <v>584.500491205295</v>
+        <v>584.5004912052949</v>
       </c>
       <c r="M30" t="n">
-        <v>997.5152369949649</v>
+        <v>997.5152369949648</v>
       </c>
       <c r="N30" t="n">
         <v>1436.859986145387</v>
@@ -6558,34 +6558,34 @@
         <v>1771.146579961072</v>
       </c>
       <c r="P30" t="n">
-        <v>2023.014501646175</v>
+        <v>2023.014501646174</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.820604768483</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.820604768483</v>
+        <v>2061.850163454432</v>
       </c>
       <c r="S30" t="n">
-        <v>2117.943820573581</v>
+        <v>2039.97337925953</v>
       </c>
       <c r="T30" t="n">
-        <v>2016.522762770201</v>
+        <v>1984.236763022142</v>
       </c>
       <c r="U30" t="n">
-        <v>1933.116991545852</v>
+        <v>1757.329056761999</v>
       </c>
       <c r="V30" t="n">
-        <v>1698.865748071453</v>
+        <v>1523.0778132876</v>
       </c>
       <c r="W30" t="n">
-        <v>1446.351256404786</v>
+        <v>1270.563321620933</v>
       </c>
       <c r="X30" t="n">
-        <v>1239.824357810364</v>
+        <v>1064.03642302651</v>
       </c>
       <c r="Y30" t="n">
-        <v>1034.095922034015</v>
+        <v>858.3079872501609</v>
       </c>
     </row>
     <row r="31">
@@ -6613,31 +6613,31 @@
         <v>80.01822806270386</v>
       </c>
       <c r="H31" t="n">
-        <v>62.37609362090571</v>
+        <v>62.3760936209057</v>
       </c>
       <c r="I31" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9853524557952</v>
+        <v>126.9853524557951</v>
       </c>
       <c r="K31" t="n">
-        <v>223.1862700245321</v>
+        <v>280.1909047188004</v>
       </c>
       <c r="L31" t="n">
-        <v>295.061472483407</v>
+        <v>492.7123537062573</v>
       </c>
       <c r="M31" t="n">
-        <v>381.4366954516465</v>
+        <v>719.7338232030787</v>
       </c>
       <c r="N31" t="n">
-        <v>611.5456170992398</v>
+        <v>833.4689125963428</v>
       </c>
       <c r="O31" t="n">
-        <v>678.8422809697843</v>
+        <v>900.7655764668872</v>
       </c>
       <c r="P31" t="n">
-        <v>853.8499679032558</v>
+        <v>935.1270168717767</v>
       </c>
       <c r="Q31" t="n">
         <v>935.1270168717767</v>
@@ -6683,19 +6683,19 @@
         <v>1080.031891782318</v>
       </c>
       <c r="E32" t="n">
-        <v>836.5459119137815</v>
+        <v>836.5459119137811</v>
       </c>
       <c r="F32" t="n">
-        <v>568.6399040399385</v>
+        <v>568.6399040399381</v>
       </c>
       <c r="G32" t="n">
-        <v>293.6288649853168</v>
+        <v>293.6288649853163</v>
       </c>
       <c r="H32" t="n">
         <v>101.0221402831235</v>
       </c>
       <c r="I32" t="n">
-        <v>57.74611176186112</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J32" t="n">
         <v>242.0142221029035</v>
@@ -6707,16 +6707,16 @@
         <v>995.7322017329172</v>
       </c>
       <c r="M32" t="n">
-        <v>1468.453380036514</v>
+        <v>1468.453380036515</v>
       </c>
       <c r="N32" t="n">
         <v>1931.030702917614</v>
       </c>
       <c r="O32" t="n">
-        <v>2329.538984592537</v>
+        <v>2329.538984592538</v>
       </c>
       <c r="P32" t="n">
-        <v>2653.325719101487</v>
+        <v>2653.325719101488</v>
       </c>
       <c r="Q32" t="n">
         <v>2854.323443406753</v>
@@ -6740,7 +6740,7 @@
         <v>2246.214044186519</v>
       </c>
       <c r="X32" t="n">
-        <v>2015.108303332244</v>
+        <v>2015.108303332243</v>
       </c>
       <c r="Y32" t="n">
         <v>1768.017236599113</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>680.6528524616285</v>
+        <v>547.7635010928062</v>
       </c>
       <c r="C33" t="n">
-        <v>507.8997373834457</v>
+        <v>518.5123210504177</v>
       </c>
       <c r="D33" t="n">
-        <v>360.3114307423896</v>
+        <v>370.9240144093615</v>
       </c>
       <c r="E33" t="n">
-        <v>202.7019017452443</v>
+        <v>213.3144854122162</v>
       </c>
       <c r="F33" t="n">
-        <v>57.74611176186112</v>
+        <v>68.35869542883307</v>
       </c>
       <c r="G33" t="n">
-        <v>57.74611176186112</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="H33" t="n">
-        <v>57.74611176186112</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="I33" t="n">
-        <v>57.74611176186112</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J33" t="n">
         <v>91.50904019075975</v>
@@ -6783,10 +6783,10 @@
         <v>275.8208757881487</v>
       </c>
       <c r="L33" t="n">
-        <v>584.500491205295</v>
+        <v>584.5004912052949</v>
       </c>
       <c r="M33" t="n">
-        <v>997.5152369949649</v>
+        <v>997.5152369949648</v>
       </c>
       <c r="N33" t="n">
         <v>1436.859986145387</v>
@@ -6795,34 +6795,34 @@
         <v>1771.146579961072</v>
       </c>
       <c r="P33" t="n">
-        <v>2023.014501646175</v>
+        <v>2023.014501646174</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.820604768483</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.820604768483</v>
+        <v>2061.850163454432</v>
       </c>
       <c r="S33" t="n">
-        <v>2117.943820573581</v>
+        <v>2039.97337925953</v>
       </c>
       <c r="T33" t="n">
-        <v>1973.62417935517</v>
+        <v>1840.734827986348</v>
       </c>
       <c r="U33" t="n">
-        <v>1746.716473095027</v>
+        <v>1613.827121726205</v>
       </c>
       <c r="V33" t="n">
-        <v>1512.465229620628</v>
+        <v>1379.575878251806</v>
       </c>
       <c r="W33" t="n">
-        <v>1259.950737953961</v>
+        <v>1127.061386585139</v>
       </c>
       <c r="X33" t="n">
-        <v>1053.423839359539</v>
+        <v>920.5344879907162</v>
       </c>
       <c r="Y33" t="n">
-        <v>847.695403583189</v>
+        <v>714.8060522143667</v>
       </c>
     </row>
     <row r="34">
@@ -6850,28 +6850,28 @@
         <v>80.01822806270386</v>
       </c>
       <c r="H34" t="n">
-        <v>62.37609362090569</v>
+        <v>62.3760936209057</v>
       </c>
       <c r="I34" t="n">
-        <v>57.74611176186112</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9853524557951</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="K34" t="n">
-        <v>280.1909047188003</v>
+        <v>210.9516640248663</v>
       </c>
       <c r="L34" t="n">
-        <v>352.0661071776752</v>
+        <v>423.4731130123232</v>
       </c>
       <c r="M34" t="n">
-        <v>438.4413301459148</v>
+        <v>650.4945825091447</v>
       </c>
       <c r="N34" t="n">
-        <v>527.9040052649261</v>
+        <v>739.9572576281561</v>
       </c>
       <c r="O34" t="n">
-        <v>678.8422809697843</v>
+        <v>807.2539214987005</v>
       </c>
       <c r="P34" t="n">
         <v>853.8499679032558</v>
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.4267187649573</v>
+        <v>965.4267187649574</v>
       </c>
       <c r="C35" t="n">
-        <v>820.1680268861004</v>
+        <v>820.1680268861002</v>
       </c>
       <c r="D35" t="n">
-        <v>685.3945500823384</v>
+        <v>685.3945500823381</v>
       </c>
       <c r="E35" t="n">
-        <v>523.8399591364662</v>
+        <v>523.8399591364659</v>
       </c>
       <c r="F35" t="n">
-        <v>337.8653401852875</v>
+        <v>337.8653401852871</v>
       </c>
       <c r="G35" t="n">
-        <v>144.7856900533298</v>
+        <v>144.7856900533297</v>
       </c>
       <c r="H35" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="I35" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380047</v>
       </c>
       <c r="J35" t="n">
-        <v>77.73221808626135</v>
+        <v>77.73221808626101</v>
       </c>
       <c r="K35" t="n">
-        <v>265.3866768710776</v>
+        <v>265.3866768710772</v>
       </c>
       <c r="L35" t="n">
-        <v>550.1577046591112</v>
+        <v>550.1577046591108</v>
       </c>
       <c r="M35" t="n">
-        <v>882.2326364341268</v>
+        <v>882.2326364341264</v>
       </c>
       <c r="N35" t="n">
         <v>1204.163712786645</v>
@@ -6956,16 +6956,16 @@
         <v>1645.166235913354</v>
       </c>
       <c r="Q35" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="R35" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="S35" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="T35" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="U35" t="n">
         <v>1676.975674121022</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>843.4176134243937</v>
+        <v>657.0170949735682</v>
       </c>
       <c r="C36" t="n">
-        <v>670.6644983462108</v>
+        <v>484.2639798953853</v>
       </c>
       <c r="D36" t="n">
-        <v>523.0761917051548</v>
+        <v>336.6756732543292</v>
       </c>
       <c r="E36" t="n">
-        <v>365.4666627080095</v>
+        <v>179.0661442571839</v>
       </c>
       <c r="F36" t="n">
-        <v>220.5108727246264</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="G36" t="n">
-        <v>220.5108727246264</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="H36" t="n">
-        <v>111.6829047891831</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="I36" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="J36" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="K36" t="n">
-        <v>34.11035427380075</v>
+        <v>218.4221898711897</v>
       </c>
       <c r="L36" t="n">
-        <v>342.789969690947</v>
+        <v>527.1018052883359</v>
       </c>
       <c r="M36" t="n">
-        <v>755.8047154806168</v>
+        <v>940.1165510780057</v>
       </c>
       <c r="N36" t="n">
-        <v>1177.920349618901</v>
+        <v>1362.23218521629</v>
       </c>
       <c r="O36" t="n">
-        <v>1512.206943434586</v>
+        <v>1696.518779031975</v>
       </c>
       <c r="P36" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="Q36" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.547272375987</v>
+        <v>1627.547272375986</v>
       </c>
       <c r="S36" t="n">
-        <v>1627.547272375987</v>
+        <v>1499.121773950192</v>
       </c>
       <c r="T36" t="n">
-        <v>1627.547272375987</v>
+        <v>1499.121773950192</v>
       </c>
       <c r="U36" t="n">
-        <v>1626.072890074302</v>
+        <v>1497.647391648508</v>
       </c>
       <c r="V36" t="n">
-        <v>1468.703091988971</v>
+        <v>1488.829472132567</v>
       </c>
       <c r="W36" t="n">
-        <v>1216.188600322304</v>
+        <v>1236.314980465901</v>
       </c>
       <c r="X36" t="n">
-        <v>1216.188600322304</v>
+        <v>1029.788081871478</v>
       </c>
       <c r="Y36" t="n">
-        <v>1010.460164545954</v>
+        <v>824.0596460951286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="C37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="D37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="E37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="F37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="G37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="H37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="I37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="J37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="K37" t="n">
-        <v>46.66966000822401</v>
+        <v>46.669660008224</v>
       </c>
       <c r="L37" t="n">
         <v>118.5448624670989</v>
       </c>
       <c r="M37" t="n">
-        <v>204.9200854353385</v>
+        <v>204.9200854353384</v>
       </c>
       <c r="N37" t="n">
         <v>294.3827605543498</v>
       </c>
       <c r="O37" t="n">
-        <v>361.6794244248942</v>
+        <v>361.6794244248941</v>
       </c>
       <c r="P37" t="n">
-        <v>396.0408648297838</v>
+        <v>396.0408648297837</v>
       </c>
       <c r="Q37" t="n">
-        <v>396.0408648297838</v>
+        <v>396.0408648297837</v>
       </c>
       <c r="R37" t="n">
-        <v>396.0408648297838</v>
+        <v>396.0408648297837</v>
       </c>
       <c r="S37" t="n">
-        <v>396.0408648297838</v>
+        <v>396.0408648297837</v>
       </c>
       <c r="T37" t="n">
-        <v>391.8554312502579</v>
+        <v>391.8554312502578</v>
       </c>
       <c r="U37" t="n">
         <v>328.3600904598946</v>
       </c>
       <c r="V37" t="n">
-        <v>298.3021507143742</v>
+        <v>298.3021507143743</v>
       </c>
       <c r="W37" t="n">
-        <v>234.7530737764535</v>
+        <v>234.7530737764536</v>
       </c>
       <c r="X37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.4267187649579</v>
+        <v>965.4267187649571</v>
       </c>
       <c r="C38" t="n">
-        <v>820.1680268861006</v>
+        <v>820.1680268861002</v>
       </c>
       <c r="D38" t="n">
-        <v>685.3945500823386</v>
+        <v>685.3945500823381</v>
       </c>
       <c r="E38" t="n">
-        <v>523.8399591364664</v>
+        <v>523.8399591364659</v>
       </c>
       <c r="F38" t="n">
-        <v>337.8653401852877</v>
+        <v>337.8653401852873</v>
       </c>
       <c r="G38" t="n">
-        <v>144.7856900533298</v>
+        <v>144.7856900533297</v>
       </c>
       <c r="H38" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="I38" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="J38" t="n">
-        <v>77.7322180862613</v>
+        <v>77.73221808626135</v>
       </c>
       <c r="K38" t="n">
         <v>265.3866768710775</v>
       </c>
       <c r="L38" t="n">
-        <v>550.1577046591111</v>
+        <v>550.157704659111</v>
       </c>
       <c r="M38" t="n">
-        <v>882.2326364341268</v>
+        <v>882.2326364341267</v>
       </c>
       <c r="N38" t="n">
         <v>1204.163712786645</v>
@@ -7199,25 +7199,25 @@
         <v>1705.517713690037</v>
       </c>
       <c r="S38" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="T38" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="U38" t="n">
-        <v>1676.975674121023</v>
+        <v>1676.975674121022</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.557259167846</v>
+        <v>1570.557259167845</v>
       </c>
       <c r="W38" t="n">
-        <v>1441.919757873219</v>
+        <v>1441.919757873218</v>
       </c>
       <c r="X38" t="n">
         <v>1292.745405941607</v>
       </c>
       <c r="Y38" t="n">
-        <v>1127.585728131141</v>
+        <v>1127.58572813114</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>657.0170949735682</v>
+        <v>727.0518205624642</v>
       </c>
       <c r="C39" t="n">
-        <v>484.2639798953854</v>
+        <v>554.2987054842813</v>
       </c>
       <c r="D39" t="n">
-        <v>336.6756732543292</v>
+        <v>406.7103988432252</v>
       </c>
       <c r="E39" t="n">
-        <v>179.0661442571839</v>
+        <v>249.1008698460799</v>
       </c>
       <c r="F39" t="n">
-        <v>34.11035427380075</v>
+        <v>104.1450798626967</v>
       </c>
       <c r="G39" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="H39" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="I39" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="J39" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="K39" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="L39" t="n">
-        <v>342.789969690947</v>
+        <v>342.7899696909469</v>
       </c>
       <c r="M39" t="n">
         <v>755.8047154806168</v>
@@ -7269,34 +7269,34 @@
         <v>1512.206943434586</v>
       </c>
       <c r="P39" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="Q39" t="n">
-        <v>1705.517713690038</v>
+        <v>1705.517713690037</v>
       </c>
       <c r="R39" t="n">
-        <v>1705.517713690038</v>
+        <v>1627.547272375986</v>
       </c>
       <c r="S39" t="n">
-        <v>1705.517713690038</v>
+        <v>1627.547272375986</v>
       </c>
       <c r="T39" t="n">
-        <v>1705.517713690038</v>
+        <v>1627.547272375986</v>
       </c>
       <c r="U39" t="n">
-        <v>1704.043331388353</v>
+        <v>1400.639566115844</v>
       </c>
       <c r="V39" t="n">
-        <v>1488.829472132567</v>
+        <v>1166.388322641444</v>
       </c>
       <c r="W39" t="n">
-        <v>1236.314980465901</v>
+        <v>1139.307154933236</v>
       </c>
       <c r="X39" t="n">
-        <v>1029.788081871478</v>
+        <v>932.7802563388137</v>
       </c>
       <c r="Y39" t="n">
-        <v>824.0596460951286</v>
+        <v>727.0518205624642</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231.7617917426805</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="C40" t="n">
-        <v>231.7617917426805</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="D40" t="n">
-        <v>231.7617917426805</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="E40" t="n">
-        <v>181.7457294352195</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="F40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="G40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="H40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="I40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="J40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="K40" t="n">
-        <v>46.66966000822401</v>
+        <v>46.669660008224</v>
       </c>
       <c r="L40" t="n">
         <v>118.5448624670989</v>
       </c>
       <c r="M40" t="n">
-        <v>204.9200854353385</v>
+        <v>204.9200854353384</v>
       </c>
       <c r="N40" t="n">
         <v>294.3827605543498</v>
       </c>
       <c r="O40" t="n">
-        <v>361.6794244248942</v>
+        <v>361.6794244248941</v>
       </c>
       <c r="P40" t="n">
-        <v>396.0408648297838</v>
+        <v>396.0408648297837</v>
       </c>
       <c r="Q40" t="n">
-        <v>396.0408648297838</v>
+        <v>396.0408648297837</v>
       </c>
       <c r="R40" t="n">
-        <v>396.0408648297838</v>
+        <v>396.0408648297837</v>
       </c>
       <c r="S40" t="n">
-        <v>396.0408648297838</v>
+        <v>396.0408648297837</v>
       </c>
       <c r="T40" t="n">
-        <v>391.8554312502579</v>
+        <v>391.8554312502578</v>
       </c>
       <c r="U40" t="n">
         <v>328.3600904598946</v>
       </c>
       <c r="V40" t="n">
-        <v>298.3021507143742</v>
+        <v>298.3021507143743</v>
       </c>
       <c r="W40" t="n">
-        <v>234.7530737764535</v>
+        <v>234.7530737764536</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7617917426805</v>
+        <v>34.11035427380074</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.7617917426805</v>
+        <v>34.11035427380074</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.3257901718239</v>
+        <v>981.3257901718243</v>
       </c>
       <c r="C41" t="n">
-        <v>833.5211685578802</v>
+        <v>833.5211685578805</v>
       </c>
       <c r="D41" t="n">
-        <v>696.2017620190318</v>
+        <v>696.201762019032</v>
       </c>
       <c r="E41" t="n">
-        <v>532.1012413380731</v>
+        <v>532.1012413380734</v>
       </c>
       <c r="F41" t="n">
         <v>343.580692651808</v>
@@ -7406,55 +7406,55 @@
         <v>34.73384727014845</v>
       </c>
       <c r="I41" t="n">
-        <v>65.28500409118563</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="J41" t="n">
-        <v>108.9068679036462</v>
+        <v>78.35571108260899</v>
       </c>
       <c r="K41" t="n">
-        <v>296.5613266884624</v>
+        <v>266.0101698674252</v>
       </c>
       <c r="L41" t="n">
-        <v>581.332354476496</v>
+        <v>550.7811976554588</v>
       </c>
       <c r="M41" t="n">
-        <v>913.4072862515117</v>
+        <v>882.8561294304743</v>
       </c>
       <c r="N41" t="n">
-        <v>1235.33836260403</v>
+        <v>1204.787205782992</v>
       </c>
       <c r="O41" t="n">
-        <v>1493.200397750371</v>
+        <v>1462.649240929333</v>
       </c>
       <c r="P41" t="n">
-        <v>1676.340885730739</v>
+        <v>1645.789728909702</v>
       </c>
       <c r="Q41" t="n">
-        <v>1736.692363507422</v>
+        <v>1706.141206686385</v>
       </c>
       <c r="R41" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507423</v>
       </c>
       <c r="S41" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507423</v>
       </c>
       <c r="T41" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507423</v>
       </c>
       <c r="U41" t="n">
         <v>1705.604394203321</v>
       </c>
       <c r="V41" t="n">
-        <v>1596.640049515057</v>
+        <v>1596.640049515058</v>
       </c>
       <c r="W41" t="n">
-        <v>1465.456618485344</v>
+        <v>1465.456618485345</v>
       </c>
       <c r="X41" t="n">
-        <v>1313.736336818646</v>
+        <v>1313.736336818647</v>
       </c>
       <c r="Y41" t="n">
-        <v>1146.030729273093</v>
+        <v>1146.030729273094</v>
       </c>
     </row>
     <row r="42">
@@ -7494,31 +7494,31 @@
         <v>34.73384727014845</v>
       </c>
       <c r="L42" t="n">
-        <v>343.4134626872947</v>
+        <v>343.4134626872946</v>
       </c>
       <c r="M42" t="n">
         <v>756.4282084769645</v>
       </c>
       <c r="N42" t="n">
-        <v>1186.259568445052</v>
+        <v>1150.537848006635</v>
       </c>
       <c r="O42" t="n">
-        <v>1520.546162260736</v>
+        <v>1484.82444182232</v>
       </c>
       <c r="P42" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507423</v>
       </c>
       <c r="Q42" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507423</v>
       </c>
       <c r="R42" t="n">
-        <v>1736.692363507422</v>
+        <v>1686.576341276359</v>
       </c>
       <c r="S42" t="n">
-        <v>1736.692363507422</v>
+        <v>1521.197622045662</v>
       </c>
       <c r="T42" t="n">
-        <v>1736.692363507422</v>
+        <v>1521.197622045662</v>
       </c>
       <c r="U42" t="n">
         <v>1517.177310008892</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>219.655636063596</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="C43" t="n">
-        <v>219.655636063596</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="D43" t="n">
-        <v>182.3692224315672</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="E43" t="n">
-        <v>182.3692224315672</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="F43" t="n">
         <v>34.73384727014845</v>
@@ -7594,25 +7594,25 @@
         <v>396.6643578261314</v>
       </c>
       <c r="S43" t="n">
-        <v>396.6643578261314</v>
+        <v>211.7425690326841</v>
       </c>
       <c r="T43" t="n">
-        <v>389.9329945115191</v>
+        <v>205.0112057180717</v>
       </c>
       <c r="U43" t="n">
-        <v>323.8917239860695</v>
+        <v>138.969935192622</v>
       </c>
       <c r="V43" t="n">
-        <v>291.2878545054626</v>
+        <v>106.3660657120152</v>
       </c>
       <c r="W43" t="n">
-        <v>225.1928478324554</v>
+        <v>40.27105903900792</v>
       </c>
       <c r="X43" t="n">
-        <v>219.655636063596</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.655636063596</v>
+        <v>34.73384727014845</v>
       </c>
     </row>
     <row r="44">
@@ -7622,61 +7622,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>981.3257901718239</v>
+        <v>981.325790171824</v>
       </c>
       <c r="C44" t="n">
-        <v>833.5211685578802</v>
+        <v>833.5211685578804</v>
       </c>
       <c r="D44" t="n">
-        <v>696.2017620190318</v>
+        <v>696.201762019032</v>
       </c>
       <c r="E44" t="n">
-        <v>532.1012413380729</v>
+        <v>532.1012413380731</v>
       </c>
       <c r="F44" t="n">
-        <v>343.5806926518078</v>
+        <v>343.580692651808</v>
       </c>
       <c r="G44" t="n">
-        <v>147.955112784764</v>
+        <v>147.9551127847639</v>
       </c>
       <c r="H44" t="n">
         <v>34.73384727014845</v>
       </c>
       <c r="I44" t="n">
-        <v>34.73384727014845</v>
+        <v>38.75222982911887</v>
       </c>
       <c r="J44" t="n">
-        <v>78.35571108260899</v>
+        <v>82.37409364157941</v>
       </c>
       <c r="K44" t="n">
-        <v>266.0101698674252</v>
+        <v>270.0285524263956</v>
       </c>
       <c r="L44" t="n">
-        <v>550.7811976554588</v>
+        <v>554.7995802144292</v>
       </c>
       <c r="M44" t="n">
-        <v>882.8561294304743</v>
+        <v>886.8745119894448</v>
       </c>
       <c r="N44" t="n">
-        <v>1204.787205782992</v>
+        <v>1208.805588341963</v>
       </c>
       <c r="O44" t="n">
-        <v>1462.649240929333</v>
+        <v>1466.667623488304</v>
       </c>
       <c r="P44" t="n">
-        <v>1645.789728909702</v>
+        <v>1649.808111468672</v>
       </c>
       <c r="Q44" t="n">
-        <v>1706.141206686385</v>
+        <v>1710.159589245356</v>
       </c>
       <c r="R44" t="n">
-        <v>1736.692363507422</v>
+        <v>1710.159589245356</v>
       </c>
       <c r="S44" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507423</v>
       </c>
       <c r="T44" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507423</v>
       </c>
       <c r="U44" t="n">
         <v>1705.604394203321</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>443.7210366138811</v>
+        <v>657.6405879699158</v>
       </c>
       <c r="C45" t="n">
-        <v>270.9679215356983</v>
+        <v>484.887472891733</v>
       </c>
       <c r="D45" t="n">
-        <v>123.3796148946421</v>
+        <v>337.2991662506769</v>
       </c>
       <c r="E45" t="n">
-        <v>34.73384727014845</v>
+        <v>179.6896372535316</v>
       </c>
       <c r="F45" t="n">
         <v>34.73384727014845</v>
@@ -7725,52 +7725,52 @@
         <v>34.73384727014845</v>
       </c>
       <c r="J45" t="n">
-        <v>68.49677569904708</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="K45" t="n">
-        <v>252.8086112964361</v>
+        <v>219.0456828675374</v>
       </c>
       <c r="L45" t="n">
-        <v>561.4882267135823</v>
+        <v>527.7252982846836</v>
       </c>
       <c r="M45" t="n">
-        <v>974.5029725032522</v>
+        <v>940.7400440743535</v>
       </c>
       <c r="N45" t="n">
-        <v>1033.731744884327</v>
+        <v>1370.57140404244</v>
       </c>
       <c r="O45" t="n">
-        <v>1368.018338700011</v>
+        <v>1704.857997858125</v>
       </c>
       <c r="P45" t="n">
-        <v>1619.886260385114</v>
+        <v>1736.692363507423</v>
       </c>
       <c r="Q45" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507423</v>
       </c>
       <c r="R45" t="n">
-        <v>1736.692363507422</v>
+        <v>1736.692363507423</v>
       </c>
       <c r="S45" t="n">
-        <v>1736.692363507422</v>
+        <v>1727.724520640085</v>
       </c>
       <c r="T45" t="n">
-        <v>1736.692363507422</v>
+        <v>1727.724520640085</v>
       </c>
       <c r="U45" t="n">
-        <v>1509.784657247279</v>
+        <v>1723.704208603314</v>
       </c>
       <c r="V45" t="n">
-        <v>1275.53341377288</v>
+        <v>1489.452965128915</v>
       </c>
       <c r="W45" t="n">
-        <v>1023.018922106214</v>
+        <v>1236.938473462248</v>
       </c>
       <c r="X45" t="n">
-        <v>816.4920235117911</v>
+        <v>1030.411574867826</v>
       </c>
       <c r="Y45" t="n">
-        <v>610.7635877354415</v>
+        <v>824.6831390914763</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>219.6556360635957</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="C46" t="n">
-        <v>219.6556360635957</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="D46" t="n">
-        <v>182.3692224315672</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="E46" t="n">
-        <v>182.3692224315672</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="F46" t="n">
         <v>34.73384727014845</v>
@@ -7828,28 +7828,28 @@
         <v>396.6643578261314</v>
       </c>
       <c r="R46" t="n">
-        <v>396.6643578261314</v>
+        <v>232.2566775212886</v>
       </c>
       <c r="S46" t="n">
-        <v>396.6643578261314</v>
+        <v>232.2566775212886</v>
       </c>
       <c r="T46" t="n">
-        <v>389.932994511519</v>
+        <v>225.5253142066762</v>
       </c>
       <c r="U46" t="n">
-        <v>323.8917239860693</v>
+        <v>159.4840436812266</v>
       </c>
       <c r="V46" t="n">
-        <v>291.2878545054625</v>
+        <v>106.3660657120152</v>
       </c>
       <c r="W46" t="n">
-        <v>225.1928478324552</v>
+        <v>40.27105903900792</v>
       </c>
       <c r="X46" t="n">
-        <v>219.6556360635957</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.6556360635957</v>
+        <v>34.73384727014845</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>332.4205330950684</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
         <v>434.3676631324684</v>
@@ -8708,7 +8708,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>216.1168943073577</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8769,16 +8769,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>88.87027518258789</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>170.9293345250275</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>196.9960496332248</v>
+        <v>479.928282784482</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8787,7 +8787,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8927,7 +8927,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>332.4205330950684</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -8945,7 +8945,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>216.1168943073577</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,19 +9003,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>97.03070864402656</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>88.87027518258789</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>484.3332662999999</v>
+        <v>421.6785725692349</v>
       </c>
       <c r="N15" t="n">
-        <v>196.9960496332248</v>
+        <v>479.928282784482</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>171.1697838000138</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9182,7 +9182,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.8075902863009</v>
+        <v>216.1168943073577</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9252,7 +9252,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>79.01008688341844</v>
+        <v>79.010086883418</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9407,10 +9407,10 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M20" t="n">
-        <v>467.4940748325458</v>
+        <v>462.8033788536026</v>
       </c>
       <c r="N20" t="n">
-        <v>450.1501054095207</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O20" t="n">
         <v>396.0321885132552</v>
@@ -9489,7 +9489,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>79.01008688341844</v>
+        <v>79.010086883418</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>171.169783800014</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
         <v>337.1112290740114</v>
@@ -9647,7 +9647,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N23" t="n">
-        <v>454.8408013884635</v>
+        <v>450.1501054095201</v>
       </c>
       <c r="O23" t="n">
         <v>396.0321885132552</v>
@@ -9714,19 +9714,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>97.03070864402656</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>88.87027518258787</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>484.3332662999999</v>
+        <v>201.4010331487423</v>
       </c>
       <c r="N24" t="n">
-        <v>417.2735890537175</v>
+        <v>479.9282827844819</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -10665,7 +10665,7 @@
         <v>97.03070864402656</v>
       </c>
       <c r="K36" t="n">
-        <v>88.87027518258787</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10674,13 +10674,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>481.1129228403886</v>
+        <v>481.1129228403885</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>272.0526415778064</v>
+        <v>85.8790702673122</v>
       </c>
       <c r="Q36" t="n">
         <v>100.4944164954767</v>
@@ -10902,7 +10902,7 @@
         <v>97.03070864402656</v>
       </c>
       <c r="K39" t="n">
-        <v>88.87027518258787</v>
+        <v>88.87027518258789</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10911,13 +10911,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>481.1129228403886</v>
+        <v>481.1129228403885</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>272.0526415778064</v>
+        <v>272.052641577806</v>
       </c>
       <c r="Q39" t="n">
         <v>100.4944164954767</v>
@@ -11139,7 +11139,7 @@
         <v>97.03070864402656</v>
       </c>
       <c r="K42" t="n">
-        <v>88.87027518258787</v>
+        <v>88.87027518258789</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11148,13 +11148,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>488.9065852947348</v>
+        <v>452.8240393973444</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>295.118733488144</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
         <v>100.4944164954767</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>97.03070864402656</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11385,16 +11385,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>114.5605372270453</v>
+        <v>488.9065852947349</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>331.2012793855346</v>
+        <v>108.9451621776505</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>100.4944164954767</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5378344848627</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.8065201724103</v>
       </c>
       <c r="D11" t="n">
-        <v>234.4261572480661</v>
+        <v>193.4118979694775</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.9394602487551</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1492688429795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.5689976340753</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.73160841495374</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>39.26271685803049</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2570343856666</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3515414940223</v>
+        <v>228.3515414940222</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.683023624637</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.5084962447035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>74.33707713686684</v>
       </c>
       <c r="C14" t="n">
         <v>244.8065201724103</v>
       </c>
       <c r="D14" t="n">
-        <v>10.2153649731822</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>260.9394602487551</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.1152879740085</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.73160841495373</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>129.2570343856665</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.354646015987</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3515414940222</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>248.683023624637</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.5084962447035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26320,40 +26320,40 @@
         <v>203039.0944389351</v>
       </c>
       <c r="E2" t="n">
-        <v>174634.9404675229</v>
+        <v>174634.9404675232</v>
       </c>
       <c r="F2" t="n">
-        <v>174634.9404675232</v>
+        <v>174634.9404675231</v>
       </c>
       <c r="G2" t="n">
-        <v>203479.852153734</v>
+        <v>203479.8521537341</v>
       </c>
       <c r="H2" t="n">
-        <v>203479.852153734</v>
+        <v>203479.8521537341</v>
       </c>
       <c r="I2" t="n">
-        <v>203479.852153734</v>
+        <v>203479.8521537341</v>
       </c>
       <c r="J2" t="n">
         <v>203479.8521537341</v>
       </c>
       <c r="K2" t="n">
-        <v>203479.8521537341</v>
+        <v>203479.852153734</v>
       </c>
       <c r="L2" t="n">
         <v>203479.8521537341</v>
       </c>
       <c r="M2" t="n">
-        <v>203479.852153734</v>
+        <v>203479.8521537342</v>
       </c>
       <c r="N2" t="n">
-        <v>203479.852153734</v>
+        <v>203479.8521537342</v>
       </c>
       <c r="O2" t="n">
+        <v>203479.8521537341</v>
+      </c>
+      <c r="P2" t="n">
         <v>203479.8521537342</v>
-      </c>
-      <c r="P2" t="n">
-        <v>203479.8521537341</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>329999.9964321817</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81106.82224513737</v>
+        <v>81106.82224513746</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110158.5909185751</v>
+        <v>110158.5909185752</v>
       </c>
       <c r="K3" t="n">
-        <v>5.549416443664987e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>81106.82224513737</v>
+        <v>81106.82224513746</v>
       </c>
       <c r="M3" t="n">
-        <v>97223.33570367857</v>
+        <v>97223.3357036785</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32405.88661632406</v>
+        <v>32405.88661632402</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>437925.5187494541</v>
       </c>
       <c r="E4" t="n">
+        <v>313065.3713775416</v>
+      </c>
+      <c r="F4" t="n">
         <v>313065.3713775415</v>
-      </c>
-      <c r="F4" t="n">
-        <v>313065.3713775416</v>
       </c>
       <c r="G4" t="n">
         <v>378659.407041549</v>
@@ -26436,7 +26436,7 @@
         <v>378659.407041549</v>
       </c>
       <c r="I4" t="n">
-        <v>378659.407041549</v>
+        <v>378659.4070415491</v>
       </c>
       <c r="J4" t="n">
         <v>378057.7732182547</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38980.63494425714</v>
+        <v>38980.63494425713</v>
       </c>
       <c r="F5" t="n">
-        <v>38980.63494425714</v>
+        <v>38980.63494425713</v>
       </c>
       <c r="G5" t="n">
         <v>47503.8467434152</v>
@@ -26488,28 +26488,28 @@
         <v>47503.8467434152</v>
       </c>
       <c r="I5" t="n">
-        <v>47503.84674341521</v>
+        <v>47503.8467434152</v>
       </c>
       <c r="J5" t="n">
         <v>58687.82962108243</v>
       </c>
       <c r="K5" t="n">
-        <v>58687.82962108243</v>
+        <v>58687.82962108242</v>
       </c>
       <c r="L5" t="n">
-        <v>58687.82962108241</v>
+        <v>58687.82962108242</v>
       </c>
       <c r="M5" t="n">
-        <v>47543.66496614261</v>
+        <v>47543.6649661426</v>
       </c>
       <c r="N5" t="n">
-        <v>47543.66496614261</v>
+        <v>47543.6649661426</v>
       </c>
       <c r="O5" t="n">
         <v>47805.62621413686</v>
       </c>
       <c r="P5" t="n">
-        <v>47805.62621413685</v>
+        <v>47805.62621413686</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268514.0243105189</v>
+        <v>-268518.4318876669</v>
       </c>
       <c r="C6" t="n">
-        <v>-268514.024310519</v>
+        <v>-268518.431887667</v>
       </c>
       <c r="D6" t="n">
-        <v>-268514.024310519</v>
+        <v>-268518.431887667</v>
       </c>
       <c r="E6" t="n">
-        <v>-507411.0622864575</v>
+        <v>-507699.5114033193</v>
       </c>
       <c r="F6" t="n">
-        <v>-177411.0658542755</v>
+        <v>-177699.5149711376</v>
       </c>
       <c r="G6" t="n">
         <v>-303790.2238763676</v>
       </c>
       <c r="H6" t="n">
+        <v>-222683.4016312301</v>
+      </c>
+      <c r="I6" t="n">
         <v>-222683.4016312302</v>
       </c>
-      <c r="I6" t="n">
-        <v>-222683.4016312301</v>
-      </c>
       <c r="J6" t="n">
-        <v>-343424.3416041781</v>
+        <v>-343424.3416041782</v>
       </c>
       <c r="K6" t="n">
         <v>-233265.7506856031</v>
       </c>
       <c r="L6" t="n">
-        <v>-314372.5729307404</v>
+        <v>-314372.5729307405</v>
       </c>
       <c r="M6" t="n">
-        <v>-319884.8031318173</v>
+        <v>-319884.8031318171</v>
       </c>
       <c r="N6" t="n">
-        <v>-222661.4674281387</v>
+        <v>-222661.4674281386</v>
       </c>
       <c r="O6" t="n">
         <v>-255219.7071324672</v>
       </c>
       <c r="P6" t="n">
-        <v>-222813.8205161432</v>
+        <v>-222813.8205161431</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F2" t="n">
         <v>122.1785755065324</v>
       </c>
       <c r="G2" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="H2" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="I2" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="J2" t="n">
         <v>142.0669156854363</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="F3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="G3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="H3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="I3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="J3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="K3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="L3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="M3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="N3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="O3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="P3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>425.1947883666029</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="F4" t="n">
-        <v>425.1947883666029</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="G4" t="n">
-        <v>425.1947883666029</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="H4" t="n">
-        <v>425.1947883666029</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="I4" t="n">
-        <v>425.1947883666029</v>
+        <v>425.1947883666027</v>
       </c>
       <c r="J4" t="n">
         <v>721.8263970232642</v>
       </c>
       <c r="K4" t="n">
-        <v>721.8263970232642</v>
+        <v>721.8263970232641</v>
       </c>
       <c r="L4" t="n">
-        <v>721.826397023264</v>
+        <v>721.8263970232641</v>
       </c>
       <c r="M4" t="n">
-        <v>426.3794284225094</v>
+        <v>426.3794284225093</v>
       </c>
       <c r="N4" t="n">
-        <v>426.3794284225094</v>
+        <v>426.3794284225093</v>
       </c>
       <c r="O4" t="n">
-        <v>434.1730908768556</v>
+        <v>434.1730908768557</v>
       </c>
       <c r="P4" t="n">
-        <v>434.1730908768556</v>
+        <v>434.1730908768557</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.3835278064217</v>
+        <v>101.3835278064218</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.68338787901455</v>
+        <v>40.6833878790145</v>
       </c>
       <c r="K2" t="n">
-        <v>6.936770554581234e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3835278064217</v>
+        <v>101.3835278064218</v>
       </c>
       <c r="M2" t="n">
-        <v>81.11207503343763</v>
+        <v>81.11207503343766</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.16291744127899</v>
+        <v>38.16291744127889</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618813</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>425.1947883666029</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>296.6316086566613</v>
+        <v>296.6316086566615</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>129.7478197658483</v>
+        <v>129.747819765848</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.79366245434619</v>
+        <v>7.793662454346361</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3835278064217</v>
+        <v>101.3835278064218</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.68338787901455</v>
+        <v>40.6833878790145</v>
       </c>
       <c r="P2" t="n">
-        <v>6.936770554581234e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>425.1947883666029</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="C11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="E11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="I11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>108.7516180225036</v>
       </c>
       <c r="S11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="T11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="U11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="V11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="W11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="X11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.1785755065323</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D12" t="n">
-        <v>122.1785755065323</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>122.1785755065323</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S12" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="T12" t="n">
-        <v>122.1785755065323</v>
+        <v>10.26427957012419</v>
       </c>
       <c r="U12" t="n">
-        <v>122.1785755065323</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>27.63437872428727</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="C13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="E13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="I13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="K13" t="n">
-        <v>122.1785755065335</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="L13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="M13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="N13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="O13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="P13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="R13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="S13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="T13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="U13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="V13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="W13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="X13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.1785755065323</v>
+        <v>122.1785755065324</v>
       </c>
     </row>
     <row r="14">
@@ -28409,16 +28409,16 @@
         <v>122.1785755065324</v>
       </c>
       <c r="D15" t="n">
-        <v>42.07326597472994</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H15" t="n">
         <v>107.7396882560888</v>
@@ -28460,16 +28460,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>122.1785755065324</v>
+        <v>42.0732659747305</v>
       </c>
       <c r="W15" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>122.1785755065324</v>
@@ -28509,7 +28509,7 @@
         <v>122.1785755065324</v>
       </c>
       <c r="K16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.1785755065322</v>
       </c>
       <c r="L16" t="n">
         <v>122.1785755065324</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="C17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="D17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="E17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="F17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="G17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="H17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="I17" t="n">
         <v>184.9101839214861</v>
@@ -28618,19 +28618,19 @@
         <v>220.6585202811384</v>
       </c>
       <c r="U17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="W17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
     </row>
     <row r="18">
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>223.5621033129541</v>
+        <v>185.7466071504499</v>
       </c>
       <c r="W18" t="n">
-        <v>141.7583014781751</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -28740,10 +28740,10 @@
         <v>159.5326287828165</v>
       </c>
       <c r="I19" t="n">
-        <v>146.6505977258905</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>21.18840038316516</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,25 +28767,25 @@
         <v>59.96888642430409</v>
       </c>
       <c r="R19" t="n">
-        <v>162.7636035017943</v>
+        <v>162.7636035017944</v>
       </c>
       <c r="S19" t="n">
-        <v>92.77612304974635</v>
+        <v>218.2383203924713</v>
       </c>
       <c r="T19" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="U19" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V19" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="W19" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X19" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="C20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="D20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="E20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="F20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="G20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="H20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="I20" t="n">
         <v>184.9101839214861</v>
@@ -28855,19 +28855,19 @@
         <v>220.6585202811384</v>
       </c>
       <c r="U20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="W20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S21" t="n">
         <v>163.724932038389</v>
       </c>
       <c r="T21" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>223.5621033129541</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>108.3284638001842</v>
+        <v>2.389666055091283</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.6532302850457</v>
       </c>
       <c r="H22" t="n">
         <v>159.5326287828165</v>
@@ -29004,25 +29004,25 @@
         <v>59.96888642430409</v>
       </c>
       <c r="R22" t="n">
-        <v>162.7636035017943</v>
+        <v>162.7636035017944</v>
       </c>
       <c r="S22" t="n">
         <v>218.2383203924713</v>
       </c>
       <c r="T22" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="U22" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V22" t="n">
-        <v>193.6248475334082</v>
+        <v>25.97161724836226</v>
       </c>
       <c r="W22" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X22" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="C23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="D23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="E23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="F23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="G23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="H23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="I23" t="n">
         <v>184.9101839214861</v>
@@ -29092,19 +29092,19 @@
         <v>220.6585202811384</v>
       </c>
       <c r="U23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="W23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
     </row>
     <row r="24">
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -29129,13 +29129,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>114.6990091698617</v>
       </c>
       <c r="H24" t="n">
-        <v>27.41421168493568</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.19073690091015</v>
       </c>
       <c r="S24" t="n">
         <v>163.724932038389</v>
       </c>
       <c r="T24" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>129.4678295992911</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -29241,25 +29241,25 @@
         <v>59.96888642430409</v>
       </c>
       <c r="R25" t="n">
-        <v>162.7636035017943</v>
+        <v>162.7636035017944</v>
       </c>
       <c r="S25" t="n">
         <v>218.2383203924713</v>
       </c>
       <c r="T25" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="U25" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V25" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="W25" t="n">
-        <v>223.5621033129541</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X25" t="n">
-        <v>206.0553087390464</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -29296,7 +29296,7 @@
         <v>142.0669156854363</v>
       </c>
       <c r="J26" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854368</v>
       </c>
       <c r="K26" t="n">
         <v>142.0669156854363</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29363,13 +29363,13 @@
         <v>142.0669156854363</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="G27" t="n">
         <v>135.7412825862149</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7396882560888</v>
+        <v>31.96313975057848</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.19073690091015</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>131.1665459644523</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29457,25 +29457,25 @@
         <v>142.0669156854363</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="L28" t="n">
-        <v>84.48647660031682</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>142.0669156854363</v>
+        <v>24.51759017601289</v>
       </c>
       <c r="P28" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.0669156854363</v>
+        <v>59.96888642430409</v>
       </c>
       <c r="R28" t="n">
         <v>142.0669156854363</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7412825862149</v>
+        <v>125.2348247559128</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.19073690091015</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>142.0669156854363</v>
       </c>
       <c r="T30" t="n">
-        <v>96.83931853510452</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="U30" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29694,25 +29694,25 @@
         <v>142.0669156854363</v>
       </c>
       <c r="K31" t="n">
-        <v>84.48647660031682</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="N31" t="n">
-        <v>142.0669156854363</v>
+        <v>24.51759017601287</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.0669156854363</v>
+        <v>59.96888642430409</v>
       </c>
       <c r="R31" t="n">
         <v>142.0669156854363</v>
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7412825862149</v>
+        <v>125.2348247559127</v>
       </c>
       <c r="H33" t="n">
         <v>107.7396882560888</v>
@@ -29873,13 +29873,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.19073690091015</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>142.0669156854363</v>
       </c>
       <c r="T33" t="n">
-        <v>54.36972095422362</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29928,25 +29928,25 @@
         <v>142.0669156854363</v>
       </c>
       <c r="J34" t="n">
-        <v>142.0669156854363</v>
+        <v>72.12828872186662</v>
       </c>
       <c r="K34" t="n">
         <v>142.0669156854363</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>84.48647660031695</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>142.0669156854363</v>
+        <v>12.35818787845021</v>
       </c>
       <c r="Q34" t="n">
         <v>142.0669156854363</v>
@@ -30080,10 +30080,10 @@
         <v>135.7412825862149</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>163.724932038389</v>
+        <v>36.58368859685265</v>
       </c>
       <c r="T36" t="n">
         <v>197.246165760451</v>
@@ -30122,13 +30122,13 @@
         <v>223.178990718874</v>
       </c>
       <c r="V36" t="n">
-        <v>76.11263093517653</v>
+        <v>223.178990718874</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>59.96888642430409</v>
       </c>
       <c r="R37" t="n">
-        <v>162.7636035017943</v>
+        <v>162.7636035017944</v>
       </c>
       <c r="S37" t="n">
         <v>218.2383203924713</v>
@@ -30207,7 +30207,7 @@
         <v>223.178990718874</v>
       </c>
       <c r="X37" t="n">
-        <v>27.50406762468307</v>
+        <v>27.50406762468296</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7412825862149</v>
+        <v>66.40690425320787</v>
       </c>
       <c r="H39" t="n">
         <v>107.7396882560888</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.19073690091015</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>163.724932038389</v>
@@ -30356,13 +30356,13 @@
         <v>197.246165760451</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>223.178990718874</v>
-      </c>
-      <c r="V39" t="n">
-        <v>18.84701037642719</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30387,10 +30387,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>97.45872248881278</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
         <v>167.6532302850457</v>
@@ -30426,7 +30426,7 @@
         <v>59.96888642430409</v>
       </c>
       <c r="R40" t="n">
-        <v>162.7636035017943</v>
+        <v>162.7636035017944</v>
       </c>
       <c r="S40" t="n">
         <v>218.2383203924713</v>
@@ -30444,7 +30444,7 @@
         <v>223.178990718874</v>
       </c>
       <c r="X40" t="n">
-        <v>223.178990718874</v>
+        <v>27.50406762468296</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30478,7 +30478,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="I41" t="n">
-        <v>215.7699382861701</v>
+        <v>184.9101839214861</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.7516180225036</v>
+        <v>139.6113723871881</v>
       </c>
       <c r="S41" t="n">
         <v>193.8577381982423</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.19073690091015</v>
+        <v>27.57587489215669</v>
       </c>
       <c r="S42" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.246165760451</v>
       </c>
       <c r="U42" t="n">
-        <v>7.318726233996102</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30621,13 +30621,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>112.0920170188108</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>167.6532302850457</v>
@@ -30663,10 +30663,10 @@
         <v>59.96888642430409</v>
       </c>
       <c r="R43" t="n">
-        <v>162.7636035017943</v>
+        <v>162.7636035017944</v>
       </c>
       <c r="S43" t="n">
-        <v>218.2383203924713</v>
+        <v>35.16574948695839</v>
       </c>
       <c r="T43" t="n">
         <v>220.6585202811384</v>
@@ -30715,7 +30715,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="I44" t="n">
-        <v>184.9101839214861</v>
+        <v>188.9691562032744</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,10 +30742,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>139.6113723871879</v>
+        <v>108.7516180225036</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8577381982423</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="T44" t="n">
         <v>220.6585202811384</v>
@@ -30782,10 +30782,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>68.27412375892509</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.7412825862149</v>
@@ -30824,13 +30824,13 @@
         <v>77.19073690091015</v>
       </c>
       <c r="S45" t="n">
-        <v>163.724932038389</v>
+        <v>154.8467675997246</v>
       </c>
       <c r="T45" t="n">
         <v>197.246165760451</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30858,13 +30858,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>112.0920170188111</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>167.6532302850457</v>
@@ -30900,7 +30900,7 @@
         <v>59.96888642430409</v>
       </c>
       <c r="R46" t="n">
-        <v>162.7636035017943</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>218.2383203924713</v>
@@ -30912,7 +30912,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="V46" t="n">
-        <v>220.6585202811384</v>
+        <v>200.3495528774199</v>
       </c>
       <c r="W46" t="n">
         <v>220.6585202811384</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H11" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I11" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J11" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K11" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L11" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M11" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N11" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O11" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P11" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R11" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S11" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T11" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U11" t="n">
         <v>0.04215368434552964</v>
@@ -31832,31 +31832,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H12" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I12" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J12" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K12" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L12" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M12" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N12" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O12" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P12" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q12" t="n">
         <v>35.9878132383943</v>
@@ -31865,7 +31865,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S12" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T12" t="n">
         <v>1.136366147817631</v>
@@ -31908,37 +31908,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H13" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I13" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J13" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K13" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L13" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M13" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N13" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O13" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P13" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R13" t="n">
         <v>10.62754416798795</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H14" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I14" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J14" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K14" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L14" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M14" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N14" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O14" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P14" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R14" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S14" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T14" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U14" t="n">
         <v>0.04215368434552964</v>
@@ -32069,31 +32069,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H15" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I15" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J15" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K15" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L15" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M15" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N15" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O15" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P15" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q15" t="n">
         <v>35.9878132383943</v>
@@ -32102,7 +32102,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S15" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T15" t="n">
         <v>1.136366147817631</v>
@@ -32145,37 +32145,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H16" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I16" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J16" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K16" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L16" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M16" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N16" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O16" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P16" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R16" t="n">
         <v>10.62754416798795</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H17" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I17" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J17" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K17" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L17" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M17" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N17" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O17" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P17" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R17" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S17" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T17" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U17" t="n">
         <v>0.04215368434552964</v>
@@ -32306,31 +32306,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H18" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I18" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J18" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K18" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L18" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M18" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N18" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O18" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P18" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q18" t="n">
         <v>35.9878132383943</v>
@@ -32339,7 +32339,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S18" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T18" t="n">
         <v>1.136366147817631</v>
@@ -32382,37 +32382,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H19" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I19" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J19" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K19" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L19" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M19" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N19" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O19" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P19" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R19" t="n">
         <v>10.62754416798795</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H20" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I20" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J20" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K20" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L20" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M20" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N20" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O20" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P20" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R20" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S20" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T20" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U20" t="n">
         <v>0.04215368434552964</v>
@@ -32543,31 +32543,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H21" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I21" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J21" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K21" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L21" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M21" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N21" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O21" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P21" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q21" t="n">
         <v>35.9878132383943</v>
@@ -32576,7 +32576,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S21" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T21" t="n">
         <v>1.136366147817631</v>
@@ -32619,37 +32619,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H22" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I22" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J22" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K22" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L22" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M22" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N22" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O22" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P22" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R22" t="n">
         <v>10.62754416798795</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H23" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I23" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J23" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K23" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L23" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M23" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N23" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O23" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P23" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R23" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S23" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T23" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U23" t="n">
         <v>0.04215368434552964</v>
@@ -32780,31 +32780,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H24" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I24" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J24" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K24" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L24" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M24" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N24" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O24" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P24" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q24" t="n">
         <v>35.9878132383943</v>
@@ -32813,7 +32813,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S24" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T24" t="n">
         <v>1.136366147817631</v>
@@ -32856,37 +32856,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H25" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I25" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J25" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K25" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L25" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M25" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N25" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O25" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P25" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R25" t="n">
         <v>10.62754416798795</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H26" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I26" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J26" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K26" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L26" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M26" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N26" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O26" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P26" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R26" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S26" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T26" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U26" t="n">
         <v>0.04215368434552964</v>
@@ -33017,31 +33017,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H27" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I27" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J27" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K27" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L27" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M27" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N27" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O27" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P27" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q27" t="n">
         <v>35.9878132383943</v>
@@ -33050,7 +33050,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S27" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T27" t="n">
         <v>1.136366147817631</v>
@@ -33093,37 +33093,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H28" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I28" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J28" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K28" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L28" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M28" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N28" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O28" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P28" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R28" t="n">
         <v>10.62754416798795</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H29" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I29" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J29" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K29" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L29" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M29" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N29" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O29" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P29" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R29" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S29" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T29" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U29" t="n">
         <v>0.04215368434552964</v>
@@ -33254,31 +33254,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H30" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I30" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J30" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K30" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L30" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M30" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N30" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O30" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P30" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q30" t="n">
         <v>35.9878132383943</v>
@@ -33287,7 +33287,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S30" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T30" t="n">
         <v>1.136366147817631</v>
@@ -33330,37 +33330,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H31" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I31" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J31" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K31" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L31" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M31" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N31" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O31" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P31" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R31" t="n">
         <v>10.62754416798795</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H32" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I32" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J32" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K32" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L32" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M32" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N32" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O32" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P32" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R32" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S32" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T32" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U32" t="n">
         <v>0.04215368434552964</v>
@@ -33491,31 +33491,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H33" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I33" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J33" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K33" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L33" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M33" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N33" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O33" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P33" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q33" t="n">
         <v>35.9878132383943</v>
@@ -33524,7 +33524,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S33" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T33" t="n">
         <v>1.136366147817631</v>
@@ -33567,37 +33567,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H34" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I34" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J34" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K34" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L34" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M34" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N34" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O34" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P34" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R34" t="n">
         <v>10.62754416798795</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H35" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I35" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J35" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K35" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L35" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M35" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N35" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O35" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P35" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R35" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S35" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T35" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U35" t="n">
         <v>0.04215368434552964</v>
@@ -33728,31 +33728,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H36" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I36" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J36" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K36" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L36" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M36" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N36" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O36" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P36" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q36" t="n">
         <v>35.9878132383943</v>
@@ -33761,7 +33761,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S36" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T36" t="n">
         <v>1.136366147817631</v>
@@ -33804,37 +33804,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H37" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I37" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J37" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K37" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L37" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M37" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N37" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O37" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P37" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R37" t="n">
         <v>10.62754416798795</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H38" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I38" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J38" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K38" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L38" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M38" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N38" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O38" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P38" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R38" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S38" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T38" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U38" t="n">
         <v>0.04215368434552964</v>
@@ -33965,31 +33965,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H39" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I39" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J39" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K39" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L39" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M39" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N39" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O39" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P39" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q39" t="n">
         <v>35.9878132383943</v>
@@ -33998,7 +33998,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S39" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T39" t="n">
         <v>1.136366147817631</v>
@@ -34041,37 +34041,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H40" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I40" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J40" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K40" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L40" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M40" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N40" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O40" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P40" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R40" t="n">
         <v>10.62754416798795</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H41" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I41" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J41" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K41" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L41" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M41" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N41" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O41" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P41" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R41" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S41" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T41" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U41" t="n">
         <v>0.04215368434552964</v>
@@ -34202,31 +34202,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H42" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I42" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J42" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K42" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L42" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M42" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N42" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O42" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P42" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q42" t="n">
         <v>35.9878132383943</v>
@@ -34235,7 +34235,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S42" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T42" t="n">
         <v>1.136366147817631</v>
@@ -34278,37 +34278,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H43" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I43" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J43" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K43" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L43" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M43" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N43" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O43" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P43" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R43" t="n">
         <v>10.62754416798795</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5269210543191207</v>
+        <v>0.5269210543191206</v>
       </c>
       <c r="H44" t="n">
-        <v>5.396330247545696</v>
+        <v>5.396330247545695</v>
       </c>
       <c r="I44" t="n">
         <v>20.31412394663792</v>
       </c>
       <c r="J44" t="n">
-        <v>44.72176583401751</v>
+        <v>44.7217658340175</v>
       </c>
       <c r="K44" t="n">
-        <v>67.0263340633459</v>
+        <v>67.02633406334589</v>
       </c>
       <c r="L44" t="n">
-        <v>83.15209427946471</v>
+        <v>83.15209427946469</v>
       </c>
       <c r="M44" t="n">
-        <v>92.52272657921236</v>
+        <v>92.52272657921235</v>
       </c>
       <c r="N44" t="n">
-        <v>94.01984102479658</v>
+        <v>94.01984102479656</v>
       </c>
       <c r="O44" t="n">
-        <v>88.78026979091082</v>
+        <v>88.78026979091079</v>
       </c>
       <c r="P44" t="n">
-        <v>75.77190626240751</v>
+        <v>75.7719062624075</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460397</v>
       </c>
       <c r="R44" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837349</v>
       </c>
       <c r="S44" t="n">
         <v>12.00721352529697</v>
       </c>
       <c r="T44" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281951</v>
       </c>
       <c r="U44" t="n">
         <v>0.04215368434552964</v>
@@ -34439,31 +34439,31 @@
         <v>0.2819276188274429</v>
       </c>
       <c r="H45" t="n">
-        <v>2.722827266043989</v>
+        <v>2.722827266043988</v>
       </c>
       <c r="I45" t="n">
-        <v>9.706718455243102</v>
+        <v>9.706718455243101</v>
       </c>
       <c r="J45" t="n">
         <v>26.63597735597346</v>
       </c>
       <c r="K45" t="n">
-        <v>45.52512781741214</v>
+        <v>45.52512781741213</v>
       </c>
       <c r="L45" t="n">
-        <v>61.21415250023055</v>
+        <v>61.21415250023053</v>
       </c>
       <c r="M45" t="n">
-        <v>71.43402868272534</v>
+        <v>71.43402868272533</v>
       </c>
       <c r="N45" t="n">
-        <v>73.32467486337079</v>
+        <v>73.32467486337077</v>
       </c>
       <c r="O45" t="n">
-        <v>67.07775236198376</v>
+        <v>67.07775236198374</v>
       </c>
       <c r="P45" t="n">
-        <v>53.83580994960181</v>
+        <v>53.8358099496018</v>
       </c>
       <c r="Q45" t="n">
         <v>35.9878132383943</v>
@@ -34472,7 +34472,7 @@
         <v>17.50424286018107</v>
       </c>
       <c r="S45" t="n">
-        <v>5.236681867255351</v>
+        <v>5.23668186725535</v>
       </c>
       <c r="T45" t="n">
         <v>1.136366147817631</v>
@@ -34515,37 +34515,37 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.236358645062409</v>
+        <v>0.2363586450624089</v>
       </c>
       <c r="H46" t="n">
-        <v>2.101443226100329</v>
+        <v>2.101443226100328</v>
       </c>
       <c r="I46" t="n">
-        <v>7.107949071513175</v>
+        <v>7.107949071513173</v>
       </c>
       <c r="J46" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591231</v>
       </c>
       <c r="K46" t="n">
         <v>27.46057712634169</v>
       </c>
       <c r="L46" t="n">
-        <v>35.14008437591489</v>
+        <v>35.14008437591488</v>
       </c>
       <c r="M46" t="n">
-        <v>37.05029197101016</v>
+        <v>37.05029197101015</v>
       </c>
       <c r="N46" t="n">
-        <v>36.16931883941394</v>
+        <v>36.16931883941393</v>
       </c>
       <c r="O46" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209396</v>
       </c>
       <c r="P46" t="n">
-        <v>28.5865037628208</v>
+        <v>28.58650376282079</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.79181345154409</v>
+        <v>19.79181345154408</v>
       </c>
       <c r="R46" t="n">
         <v>10.62754416798795</v>
@@ -35410,10 +35410,10 @@
         <v>44.06248869945509</v>
       </c>
       <c r="K11" t="n">
-        <v>184.8592623895583</v>
+        <v>189.5499583685012</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6475028161956</v>
+        <v>287.6475028161955</v>
       </c>
       <c r="M11" t="n">
         <v>335.4292240151673</v>
@@ -35425,10 +35425,10 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P11" t="n">
-        <v>184.9903918993617</v>
+        <v>184.9903918993616</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.9610886633166</v>
+        <v>56.27039268437343</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999861</v>
       </c>
       <c r="K12" t="n">
-        <v>186.1735713104939</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>311.7975913304508</v>
+        <v>97.05296673988069</v>
       </c>
       <c r="M12" t="n">
         <v>417.1866119087574</v>
       </c>
       <c r="N12" t="n">
-        <v>142.2625552153456</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="O12" t="n">
         <v>337.6632260764491</v>
@@ -35507,7 +35507,7 @@
         <v>254.4120421061644</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.05028678466569</v>
+        <v>50.05028678466573</v>
       </c>
       <c r="K13" t="n">
-        <v>134.8647429150418</v>
+        <v>134.8647429150407</v>
       </c>
       <c r="L13" t="n">
         <v>194.7797901114565</v>
       </c>
       <c r="M13" t="n">
-        <v>209.426275474451</v>
+        <v>209.4262754744511</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5449140105841</v>
+        <v>212.5449140105842</v>
       </c>
       <c r="O13" t="n">
-        <v>190.1550036585973</v>
+        <v>190.1550036585974</v>
       </c>
       <c r="P13" t="n">
-        <v>156.8871011680369</v>
+        <v>156.887101168037</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.20968908222822</v>
+        <v>62.20968908222827</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>44.06248869945509</v>
       </c>
       <c r="K14" t="n">
-        <v>184.8592623895583</v>
+        <v>189.5499583685012</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6475028161956</v>
+        <v>287.6475028161955</v>
       </c>
       <c r="M14" t="n">
         <v>335.4292240151673</v>
@@ -35662,10 +35662,10 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P14" t="n">
-        <v>184.9903918993617</v>
+        <v>184.9903918993616</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.9610886633166</v>
+        <v>56.27039268437343</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.10396810999862</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>186.1735713104939</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>311.7975913304508</v>
+        <v>311.7975913304507</v>
       </c>
       <c r="M15" t="n">
-        <v>417.1866119087574</v>
+        <v>354.5319181779924</v>
       </c>
       <c r="N15" t="n">
-        <v>142.2625552153456</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="O15" t="n">
         <v>337.6632260764491</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.05028678466574</v>
+        <v>50.05028678466573</v>
       </c>
       <c r="K16" t="n">
-        <v>134.8647429150407</v>
+        <v>134.8647429150405</v>
       </c>
       <c r="L16" t="n">
         <v>194.7797901114565</v>
@@ -35823,7 +35823,7 @@
         <v>156.887101168037</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20968908222828</v>
+        <v>62.20968908222827</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>39.3717927205122</v>
+        <v>44.06248869945509</v>
       </c>
       <c r="K17" t="n">
         <v>189.5499583685012</v>
       </c>
       <c r="L17" t="n">
-        <v>287.6475028161956</v>
+        <v>287.6475028161955</v>
       </c>
       <c r="M17" t="n">
         <v>335.4292240151673</v>
@@ -35899,10 +35899,10 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P17" t="n">
-        <v>184.9903918993617</v>
+        <v>184.9903918993616</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.9610886633166</v>
+        <v>56.27039268437343</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999861</v>
       </c>
       <c r="K18" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L18" t="n">
-        <v>311.7975913304508</v>
+        <v>311.7975913304507</v>
       </c>
       <c r="M18" t="n">
         <v>417.1866119087574</v>
       </c>
       <c r="N18" t="n">
-        <v>24.27659246553926</v>
+        <v>24.2765924655388</v>
       </c>
       <c r="O18" t="n">
         <v>337.6632260764491</v>
@@ -36051,10 +36051,10 @@
         <v>87.24769996791872</v>
       </c>
       <c r="N19" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405182</v>
       </c>
       <c r="O19" t="n">
-        <v>67.97642815206503</v>
+        <v>67.97642815206501</v>
       </c>
       <c r="P19" t="n">
         <v>34.70852566150464</v>
@@ -36124,22 +36124,22 @@
         <v>189.5499583685012</v>
       </c>
       <c r="L20" t="n">
-        <v>287.6475028161956</v>
+        <v>287.6475028161955</v>
       </c>
       <c r="M20" t="n">
-        <v>335.4292240151673</v>
+        <v>330.738528036224</v>
       </c>
       <c r="N20" t="n">
-        <v>320.4922094276411</v>
+        <v>325.1829054065839</v>
       </c>
       <c r="O20" t="n">
         <v>260.4667021680214</v>
       </c>
       <c r="P20" t="n">
-        <v>184.9903918993617</v>
+        <v>184.9903918993616</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.9610886633166</v>
+        <v>60.96108866331659</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999861</v>
       </c>
       <c r="K21" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L21" t="n">
-        <v>311.7975913304508</v>
+        <v>311.7975913304507</v>
       </c>
       <c r="M21" t="n">
         <v>417.1866119087574</v>
       </c>
       <c r="N21" t="n">
-        <v>24.27659246553926</v>
+        <v>24.2765924655388</v>
       </c>
       <c r="O21" t="n">
         <v>337.6632260764491</v>
@@ -36288,10 +36288,10 @@
         <v>87.24769996791872</v>
       </c>
       <c r="N22" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405182</v>
       </c>
       <c r="O22" t="n">
-        <v>67.97642815206503</v>
+        <v>67.97642815206501</v>
       </c>
       <c r="P22" t="n">
         <v>34.70852566150464</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.37179272051242</v>
+        <v>44.06248869945509</v>
       </c>
       <c r="K23" t="n">
         <v>189.5499583685012</v>
       </c>
       <c r="L23" t="n">
-        <v>287.6475028161956</v>
+        <v>287.6475028161955</v>
       </c>
       <c r="M23" t="n">
         <v>335.4292240151673</v>
       </c>
       <c r="N23" t="n">
-        <v>325.1829054065839</v>
+        <v>320.4922094276404</v>
       </c>
       <c r="O23" t="n">
         <v>260.4667021680214</v>
       </c>
       <c r="P23" t="n">
-        <v>184.9903918993617</v>
+        <v>184.9903918993616</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.9610886633166</v>
+        <v>60.96108866331659</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>34.10396810999861</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L24" t="n">
-        <v>311.7975913304508</v>
+        <v>311.7975913304507</v>
       </c>
       <c r="M24" t="n">
-        <v>417.1866119087574</v>
+        <v>134.2543787574997</v>
       </c>
       <c r="N24" t="n">
-        <v>362.5400946358383</v>
+        <v>425.1947883666027</v>
       </c>
       <c r="O24" t="n">
         <v>337.6632260764491</v>
@@ -36525,10 +36525,10 @@
         <v>87.24769996791872</v>
       </c>
       <c r="N25" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405182</v>
       </c>
       <c r="O25" t="n">
-        <v>67.97642815206503</v>
+        <v>67.97642815206501</v>
       </c>
       <c r="P25" t="n">
         <v>34.70852566150464</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.1294043848914</v>
+        <v>186.1294043848918</v>
       </c>
       <c r="K26" t="n">
         <v>331.6168740539375</v>
       </c>
       <c r="L26" t="n">
-        <v>429.7144185016319</v>
+        <v>429.7144185016318</v>
       </c>
       <c r="M26" t="n">
         <v>477.4961397006036</v>
       </c>
       <c r="N26" t="n">
-        <v>467.2498210920203</v>
+        <v>467.2498210920202</v>
       </c>
       <c r="O26" t="n">
-        <v>402.5336178534578</v>
+        <v>402.5336178534577</v>
       </c>
       <c r="P26" t="n">
         <v>327.057307584798</v>
@@ -36616,7 +36616,7 @@
         <v>203.0280043487529</v>
       </c>
       <c r="R26" t="n">
-        <v>33.31529766293275</v>
+        <v>33.31529766293274</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999861</v>
       </c>
       <c r="K27" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L27" t="n">
-        <v>311.7975913304508</v>
+        <v>311.7975913304507</v>
       </c>
       <c r="M27" t="n">
         <v>417.1866119087574</v>
@@ -36753,25 +36753,25 @@
         <v>69.9386269635697</v>
       </c>
       <c r="K28" t="n">
-        <v>12.68616740850834</v>
+        <v>154.7530830939447</v>
       </c>
       <c r="L28" t="n">
-        <v>157.087691205241</v>
+        <v>214.6681302903605</v>
       </c>
       <c r="M28" t="n">
-        <v>87.24769996791872</v>
+        <v>229.314615653355</v>
       </c>
       <c r="N28" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405182</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0433438375014</v>
+        <v>92.4940183280779</v>
       </c>
       <c r="P28" t="n">
-        <v>176.775441346941</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.09802926113224</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>467.2498210920203</v>
       </c>
       <c r="O29" t="n">
-        <v>402.5336178534578</v>
+        <v>402.5336178534577</v>
       </c>
       <c r="P29" t="n">
         <v>327.057307584798</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999861</v>
       </c>
       <c r="K30" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L30" t="n">
-        <v>311.7975913304508</v>
+        <v>311.7975913304507</v>
       </c>
       <c r="M30" t="n">
         <v>417.1866119087574</v>
@@ -36990,25 +36990,25 @@
         <v>69.9386269635697</v>
       </c>
       <c r="K31" t="n">
-        <v>97.17264400882516</v>
+        <v>154.7530830939447</v>
       </c>
       <c r="L31" t="n">
-        <v>72.60121460492417</v>
+        <v>214.6681302903605</v>
       </c>
       <c r="M31" t="n">
-        <v>87.24769996791872</v>
+        <v>229.314615653355</v>
       </c>
       <c r="N31" t="n">
-        <v>232.4332541894882</v>
+        <v>114.8839286800647</v>
       </c>
       <c r="O31" t="n">
-        <v>67.97642815206503</v>
+        <v>67.97642815206501</v>
       </c>
       <c r="P31" t="n">
-        <v>176.775441346941</v>
+        <v>34.70852566150464</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.09802926113224</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>467.2498210920203</v>
       </c>
       <c r="O32" t="n">
-        <v>402.5336178534578</v>
+        <v>402.5336178534577</v>
       </c>
       <c r="P32" t="n">
         <v>327.057307584798</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999861</v>
       </c>
       <c r="K33" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L33" t="n">
-        <v>311.7975913304508</v>
+        <v>311.7975913304507</v>
       </c>
       <c r="M33" t="n">
         <v>417.1866119087574</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.9386269635697</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>154.7530830939447</v>
       </c>
       <c r="L34" t="n">
-        <v>72.60121460492417</v>
+        <v>214.6681302903605</v>
       </c>
       <c r="M34" t="n">
-        <v>87.24769996791872</v>
+        <v>229.314615653355</v>
       </c>
       <c r="N34" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405182</v>
       </c>
       <c r="O34" t="n">
-        <v>152.462904752382</v>
+        <v>67.97642815206501</v>
       </c>
       <c r="P34" t="n">
-        <v>176.775441346941</v>
+        <v>47.06671353995485</v>
       </c>
       <c r="Q34" t="n">
         <v>82.09802926113224</v>
@@ -37309,7 +37309,7 @@
         <v>189.5499583685012</v>
       </c>
       <c r="L35" t="n">
-        <v>287.6475028161956</v>
+        <v>287.6475028161955</v>
       </c>
       <c r="M35" t="n">
         <v>335.4292240151673</v>
@@ -37321,10 +37321,10 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P35" t="n">
-        <v>184.9903918993617</v>
+        <v>184.9903918993616</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.9610886633166</v>
+        <v>60.96108866331659</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L36" t="n">
-        <v>311.7975913304508</v>
+        <v>311.7975913304507</v>
       </c>
       <c r="M36" t="n">
         <v>417.1866119087574</v>
       </c>
       <c r="N36" t="n">
-        <v>426.3794284225094</v>
+        <v>426.3794284225093</v>
       </c>
       <c r="O36" t="n">
         <v>337.6632260764491</v>
       </c>
       <c r="P36" t="n">
-        <v>195.2634042984362</v>
+        <v>9.089832987942001</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>87.24769996791872</v>
       </c>
       <c r="N37" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405182</v>
       </c>
       <c r="O37" t="n">
-        <v>67.97642815206503</v>
+        <v>67.97642815206501</v>
       </c>
       <c r="P37" t="n">
         <v>34.70852566150464</v>
@@ -37546,7 +37546,7 @@
         <v>189.5499583685012</v>
       </c>
       <c r="L38" t="n">
-        <v>287.6475028161956</v>
+        <v>287.6475028161955</v>
       </c>
       <c r="M38" t="n">
         <v>335.4292240151673</v>
@@ -37558,10 +37558,10 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P38" t="n">
-        <v>184.9903918993617</v>
+        <v>184.9903918993616</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.9610886633166</v>
+        <v>60.96108866331659</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>311.7975913304508</v>
+        <v>311.7975913304507</v>
       </c>
       <c r="M39" t="n">
         <v>417.1866119087574</v>
       </c>
       <c r="N39" t="n">
-        <v>426.3794284225094</v>
+        <v>426.3794284225093</v>
       </c>
       <c r="O39" t="n">
         <v>337.6632260764491</v>
       </c>
       <c r="P39" t="n">
-        <v>195.2634042984362</v>
+        <v>195.2634042984358</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37710,10 +37710,10 @@
         <v>87.24769996791872</v>
       </c>
       <c r="N40" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405182</v>
       </c>
       <c r="O40" t="n">
-        <v>67.97642815206503</v>
+        <v>67.97642815206501</v>
       </c>
       <c r="P40" t="n">
         <v>34.70852566150464</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>30.85975436468402</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>44.06248869945509</v>
@@ -37783,7 +37783,7 @@
         <v>189.5499583685012</v>
       </c>
       <c r="L41" t="n">
-        <v>287.6475028161956</v>
+        <v>287.6475028161955</v>
       </c>
       <c r="M41" t="n">
         <v>335.4292240151673</v>
@@ -37795,13 +37795,13 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P41" t="n">
-        <v>184.9903918993617</v>
+        <v>184.9903918993616</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.9610886633166</v>
+        <v>60.96108866331659</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>30.85975436468454</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>311.7975913304508</v>
+        <v>311.7975913304507</v>
       </c>
       <c r="M42" t="n">
         <v>417.1866119087574</v>
       </c>
       <c r="N42" t="n">
-        <v>434.1730908768556</v>
+        <v>398.0905449794653</v>
       </c>
       <c r="O42" t="n">
         <v>337.6632260764491</v>
       </c>
       <c r="P42" t="n">
-        <v>218.3294962087739</v>
+        <v>254.4120421061644</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37947,10 +37947,10 @@
         <v>87.24769996791872</v>
       </c>
       <c r="N43" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405182</v>
       </c>
       <c r="O43" t="n">
-        <v>67.97642815206503</v>
+        <v>67.97642815206501</v>
       </c>
       <c r="P43" t="n">
         <v>34.70852566150464</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.058972281788298</v>
       </c>
       <c r="J44" t="n">
         <v>44.06248869945509</v>
@@ -38020,7 +38020,7 @@
         <v>189.5499583685012</v>
       </c>
       <c r="L44" t="n">
-        <v>287.6475028161956</v>
+        <v>287.6475028161955</v>
       </c>
       <c r="M44" t="n">
         <v>335.4292240151673</v>
@@ -38032,16 +38032,16 @@
         <v>260.4667021680214</v>
       </c>
       <c r="P44" t="n">
-        <v>184.9903918993617</v>
+        <v>184.9903918993616</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.9610886633166</v>
+        <v>60.96108866331659</v>
       </c>
       <c r="R44" t="n">
-        <v>30.85975436468431</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>26.80078208289612</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.10396810999862</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L45" t="n">
-        <v>311.7975913304508</v>
+        <v>311.7975913304507</v>
       </c>
       <c r="M45" t="n">
         <v>417.1866119087574</v>
       </c>
       <c r="N45" t="n">
-        <v>59.82704280916612</v>
+        <v>434.1730908768557</v>
       </c>
       <c r="O45" t="n">
         <v>337.6632260764491</v>
       </c>
       <c r="P45" t="n">
-        <v>254.4120421061644</v>
+        <v>32.15592489828033</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.9859627498064</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,10 +38184,10 @@
         <v>87.24769996791872</v>
       </c>
       <c r="N46" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405182</v>
       </c>
       <c r="O46" t="n">
-        <v>67.97642815206503</v>
+        <v>67.97642815206501</v>
       </c>
       <c r="P46" t="n">
         <v>34.70852566150464</v>
